--- a/uploads/source_file.xlsx
+++ b/uploads/source_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0374BEEA-BB59-4968-9516-17A6400027FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84A851-3740-411D-B1DF-A9227930D9AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2912,7 +2905,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3010,7 +3003,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel_BuiltIn_Заголовок 1 1" xfId="1"/>
+    <cellStyle name="Excel_BuiltIn_Заголовок 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3441,11 +3434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C603"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C602"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A463" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E475" sqref="E475"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3456,3894 +3449,3891 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="2:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
     <row r="3" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="B54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="6"/>
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="56" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="B85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C86" s="6"/>
+      <c r="B86" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="87" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="B95" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="6"/>
     </row>
     <row r="96" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="6"/>
+      <c r="B96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="97" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="B115" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="6"/>
+      <c r="B116" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="117" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="B119" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C120" s="6"/>
+      <c r="B120" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="121" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="B127" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C128" s="6"/>
+      <c r="B128" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="129" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="B131" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="6"/>
     </row>
     <row r="132" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C132" s="6"/>
+      <c r="B132" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="133" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="B170" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C170" s="6"/>
     </row>
     <row r="171" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C171" s="6"/>
+      <c r="B171" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="172" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="B184" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C184" s="6"/>
     </row>
     <row r="185" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C185" s="6"/>
+      <c r="B185" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="186" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>402</v>
-      </c>
+      <c r="B210" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C210" s="6"/>
     </row>
     <row r="211" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C211" s="6"/>
+      <c r="B211" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="212" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="4" t="s">
-        <v>414</v>
-      </c>
+      <c r="B217" s="4"/>
       <c r="C217" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="C218" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="221" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="222" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="224" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="225" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="226" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="227" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="239" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="240" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="256" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="259" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="262" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="263" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="264" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="268" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="272" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="273" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="275" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="277" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="278" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="279" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="280" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="281" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="282" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="283" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="284" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="285" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="288" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="289" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="290" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="291" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="292" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="293" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="294" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="295" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="296" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="297" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="298" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="300" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="301" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="302" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="303" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="304" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="305" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="306" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="307" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="B307" s="4"/>
       <c r="C307" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="308" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="4"/>
+      <c r="B308" s="4" t="s">
+        <v>596</v>
+      </c>
       <c r="C308" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="309" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="310" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="311" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="312" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="313" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="314" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="315" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="316" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="317" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="318" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="319" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="320" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="321" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="322" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="323" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="324" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="325" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="326" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="327" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="328" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="329" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="330" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="331" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="332" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="333" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="334" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="335" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="336" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="337" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="338" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="339" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="4" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="340" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="4" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="341" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="342" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="343" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="4" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="344" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="345" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="346" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="347" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="348" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="349" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="350" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="351" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="352" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="353" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="354" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="355" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="356" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="357" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="4" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="358" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="360" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="361" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="4" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="362" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="4" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="363" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="364" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="365" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="366" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="367" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="368" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="369" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="370" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="371" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>721</v>
-      </c>
+      <c r="B371" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C371" s="6"/>
     </row>
     <row r="372" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="C372" s="6"/>
+      <c r="B372" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="373" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="4" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="374" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="375" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="376" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="377" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="4" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="378" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>734</v>
-      </c>
+      <c r="B378" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C378" s="6"/>
     </row>
     <row r="379" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="C379" s="6"/>
+      <c r="B379" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="380" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="381" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="382" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="383" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="384" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="385" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="386" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="387" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="388" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="389" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="390" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="391" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="392" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="393" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="394" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>765</v>
-      </c>
+      <c r="B394" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C394" s="6"/>
     </row>
     <row r="395" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C395" s="6"/>
+      <c r="B395" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="396" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="397" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="398" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="399" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="400" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="4" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="401" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="402" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="403" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="404" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="405" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="406" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="407" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="408" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="409" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="410" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="411" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="412" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="4" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="413" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="4" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="414" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="4" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="415" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="4" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="417" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="418" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="419" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="4" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="420" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="4" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="421" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="422" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="423" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="424" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="425" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="4" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="426" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="427" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="428" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="4" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="429" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="430" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="4" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="431" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="4" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="432" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="433" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="4" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="434" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="4" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="435" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="4" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="436" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="437" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="438" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="439" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="440" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="441" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="442" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="4" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="443" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="444" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="4" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="445" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="4" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="446" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="447" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="4" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="448" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="4" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="449" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="450" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="451" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="452" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="453" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="454" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="455" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="4" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="456" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="4" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="457" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="4" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="458" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="459" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="460" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C460" s="4" t="s">
-        <v>896</v>
-      </c>
+      <c r="B460" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C460" s="6"/>
     </row>
     <row r="461" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B461" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="C461" s="6"/>
+      <c r="B461" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="462" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="463" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="464" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="465" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="466" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="467" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="468" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="469" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="470" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="471" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="472" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="473" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="474" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="475" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="4" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="476" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="4" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="477" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="478" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="479" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="480" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="481" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="482" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="483" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="4" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="484" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="4" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="485" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="486" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="4" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="487" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="4" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="488" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="4" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="489" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="490" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="4" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="491" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="492" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B492" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="C492" s="4" t="s">
         <v>959</v>
       </c>
     </row>
+    <row r="492" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="493" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="494" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="495" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7454,7 +7444,6 @@
     <row r="600" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="601" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="602" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/uploads/source_file.xlsx
+++ b/uploads/source_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Разработчик CRM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84A851-3740-411D-B1DF-A9227930D9AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7822B11-4CCB-4105-8925-C0DF882293EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2905,7 +2905,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2991,10 +2991,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3003,7 +3002,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel_BuiltIn_Заголовок 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Заголовок 1 1" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3434,3906 +3433,3909 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C602"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C603"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="2:3" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+    <row r="25" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
+    <row r="33" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
+    <row r="38" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+    <row r="44" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+    <row r="45" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
+    <row r="46" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
+    <row r="48" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
+    <row r="49" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+    <row r="50" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
+    <row r="51" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
+    <row r="52" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
+    <row r="53" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
+    <row r="54" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
+    <row r="57" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="4" t="s">
+    <row r="58" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+    <row r="59" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
+    <row r="60" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
+    <row r="61" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
+    <row r="64" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+    <row r="65" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+    <row r="66" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+    <row r="68" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
+    <row r="69" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+    <row r="70" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+    <row r="71" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
+    <row r="72" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="73" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
+    <row r="74" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
+    <row r="75" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
+    <row r="76" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+    <row r="77" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+    <row r="78" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+    <row r="79" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+    <row r="80" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
+    <row r="81" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
+    <row r="82" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
+    <row r="83" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
+    <row r="84" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
+    <row r="85" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
+    <row r="88" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
+    <row r="89" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+    <row r="90" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+    <row r="91" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
+    <row r="92" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="4" t="s">
+    <row r="93" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="4" t="s">
+    <row r="94" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
+    <row r="95" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="6"/>
     </row>
     <row r="96" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="4" t="s">
+    <row r="99" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
+    <row r="100" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="4" t="s">
+    <row r="101" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="4" t="s">
+    <row r="102" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="4" t="s">
+    <row r="103" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="4" t="s">
+    <row r="104" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
+    <row r="105" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
+    <row r="106" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="4" t="s">
+    <row r="107" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="4" t="s">
+    <row r="108" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="4" t="s">
+    <row r="109" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="4" t="s">
+    <row r="110" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="4" t="s">
+    <row r="111" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="4" t="s">
+    <row r="112" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="4" t="s">
+    <row r="113" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="4" t="s">
+    <row r="114" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="4" t="s">
+    <row r="115" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="4" t="s">
+    <row r="118" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="4" t="s">
+    <row r="119" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="4" t="s">
+    <row r="122" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="4" t="s">
+    <row r="123" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="4" t="s">
+    <row r="124" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="4" t="s">
+    <row r="125" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="4" t="s">
+    <row r="126" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="4" t="s">
+    <row r="127" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="4" t="s">
+    <row r="130" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="4" t="s">
+    <row r="131" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C131" s="6"/>
     </row>
     <row r="132" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="4" t="s">
+    <row r="134" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="4" t="s">
+    <row r="135" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="4" t="s">
+    <row r="136" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="4" t="s">
+    <row r="137" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="4" t="s">
+    <row r="138" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="4" t="s">
+    <row r="139" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="4" t="s">
+    <row r="140" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="4" t="s">
+    <row r="141" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="4" t="s">
+    <row r="142" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="4" t="s">
+    <row r="143" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="4" t="s">
+    <row r="144" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="4" t="s">
+    <row r="145" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="4" t="s">
+    <row r="146" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="4" t="s">
+    <row r="147" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="4" t="s">
+    <row r="148" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="4" t="s">
+    <row r="149" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="4" t="s">
+    <row r="150" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="4" t="s">
+    <row r="151" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="4" t="s">
+    <row r="152" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="4" t="s">
+    <row r="153" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="4" t="s">
+    <row r="154" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="4" t="s">
+    <row r="155" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="4" t="s">
+    <row r="156" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="4" t="s">
+    <row r="157" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="4" t="s">
+    <row r="158" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="4" t="s">
+    <row r="159" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="4" t="s">
+    <row r="160" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="4" t="s">
+    <row r="161" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="4" t="s">
+    <row r="162" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C162" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="4" t="s">
+    <row r="163" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="4" t="s">
+    <row r="164" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="4" t="s">
+    <row r="165" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="4" t="s">
+    <row r="166" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="4" t="s">
+    <row r="167" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="4" t="s">
+    <row r="168" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="4" t="s">
+    <row r="169" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="4" t="s">
+    <row r="170" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C170" s="6"/>
     </row>
     <row r="171" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C172" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="4" t="s">
+    <row r="173" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="4" t="s">
+    <row r="174" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="4" t="s">
+    <row r="175" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C175" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="4" t="s">
+    <row r="176" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C176" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="4" t="s">
+    <row r="177" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="4" t="s">
+    <row r="178" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="4" t="s">
+    <row r="179" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="4" t="s">
+    <row r="180" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C180" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="4" t="s">
+    <row r="181" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="4" t="s">
+    <row r="182" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="4" t="s">
+    <row r="183" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="4" t="s">
+    <row r="184" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C184" s="6"/>
     </row>
     <row r="185" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C186" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="4" t="s">
+    <row r="187" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="4" t="s">
+    <row r="188" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C188" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="4" t="s">
+    <row r="189" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C189" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="4" t="s">
+    <row r="190" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="4" t="s">
+    <row r="191" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="4" t="s">
+    <row r="192" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="4" t="s">
+    <row r="193" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C193" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="4" t="s">
+    <row r="194" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="4" t="s">
+    <row r="195" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C195" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="4" t="s">
+    <row r="196" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C196" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="4" t="s">
+    <row r="197" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C197" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="4" t="s">
+    <row r="198" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C198" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="4" t="s">
+    <row r="199" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C199" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="4" t="s">
+    <row r="200" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C200" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="4" t="s">
+    <row r="201" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="4" t="s">
+    <row r="202" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="4" t="s">
+    <row r="203" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="4" t="s">
+    <row r="204" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="4" t="s">
+    <row r="205" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="4" t="s">
+    <row r="206" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C206" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="4" t="s">
+    <row r="207" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C207" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="4" t="s">
+    <row r="208" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C208" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="4" t="s">
+    <row r="209" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C209" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="4" t="s">
+    <row r="210" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C210" s="6"/>
     </row>
     <row r="211" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="4" t="s">
+    <row r="213" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C213" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="4" t="s">
+    <row r="214" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C214" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="4" t="s">
+    <row r="215" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="4" t="s">
+    <row r="216" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="4" t="s">
+    <row r="217" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="4"/>
-      <c r="C217" s="4" t="s">
+    <row r="218" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="4" t="s">
+    <row r="219" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C219" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="4" t="s">
+    <row r="220" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C220" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="4" t="s">
+    <row r="221" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="4" t="s">
+    <row r="222" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C222" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="4" t="s">
+    <row r="223" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="4" t="s">
+    <row r="224" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="4" t="s">
+    <row r="225" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C225" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="4" t="s">
+    <row r="226" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C226" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="4" t="s">
+    <row r="227" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="4" t="s">
+    <row r="228" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C228" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="4" t="s">
+    <row r="229" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C229" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="4" t="s">
+    <row r="230" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C230" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="4" t="s">
+    <row r="231" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="4" t="s">
+    <row r="232" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C232" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="4" t="s">
+    <row r="233" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C233" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="4" t="s">
+    <row r="234" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C234" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="4" t="s">
+    <row r="235" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C235" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="235" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="4" t="s">
+    <row r="236" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C236" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="236" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="4" t="s">
+    <row r="237" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C237" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="237" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="4" t="s">
+    <row r="238" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C238" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="238" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="4" t="s">
+    <row r="239" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C239" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="4" t="s">
+    <row r="240" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C240" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="4" t="s">
+    <row r="241" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C241" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="4" t="s">
+    <row r="242" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C242" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="4" t="s">
+    <row r="243" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C243" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="4" t="s">
+    <row r="244" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C244" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="4" t="s">
+    <row r="245" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C245" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="4" t="s">
+    <row r="246" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C246" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="4" t="s">
+    <row r="247" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C247" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="247" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="4" t="s">
+    <row r="248" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C248" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="248" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="4" t="s">
+    <row r="249" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C249" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="249" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="4" t="s">
+    <row r="250" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C250" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="4" t="s">
+    <row r="251" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C251" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="4" t="s">
+    <row r="252" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C252" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="252" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="4" t="s">
+    <row r="253" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C253" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="4" t="s">
+    <row r="254" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C254" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="254" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="4" t="s">
+    <row r="255" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C255" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="4" t="s">
+    <row r="256" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C256" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="4" t="s">
+    <row r="257" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C257" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="4" t="s">
+    <row r="258" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C258" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="4" t="s">
+    <row r="259" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C259" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="4" t="s">
+    <row r="260" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C260" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="4" t="s">
+    <row r="261" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C261" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="4" t="s">
+    <row r="262" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C262" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="4" t="s">
+    <row r="263" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C263" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="263" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="4" t="s">
+    <row r="264" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C264" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="264" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="4" t="s">
+    <row r="265" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C265" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="265" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="4" t="s">
+    <row r="266" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C266" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="266" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="4" t="s">
+    <row r="267" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C267" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="4" t="s">
+    <row r="268" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C268" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="268" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="4" t="s">
+    <row r="269" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C269" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="269" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="4" t="s">
+    <row r="270" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C270" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="270" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="4" t="s">
+    <row r="271" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C271" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="4" t="s">
+    <row r="272" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C272" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="4" t="s">
+    <row r="273" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C273" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="273" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="4" t="s">
+    <row r="274" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C274" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="274" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="4" t="s">
+    <row r="275" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B275" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C275" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="275" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="4" t="s">
+    <row r="276" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C276" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="4" t="s">
+    <row r="277" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C277" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="277" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="4" t="s">
+    <row r="278" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C278" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="278" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="4" t="s">
+    <row r="279" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C279" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="279" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="4" t="s">
+    <row r="280" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C280" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="280" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="4" t="s">
+    <row r="281" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C281" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="281" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="4" t="s">
+    <row r="282" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C282" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="282" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="4" t="s">
+    <row r="283" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C283" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="283" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="4" t="s">
+    <row r="284" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C284" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="4" t="s">
+    <row r="285" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C285" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="4" t="s">
+    <row r="286" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C286" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="286" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="4" t="s">
+    <row r="287" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C287" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="287" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="4" t="s">
+    <row r="288" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C288" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="4" t="s">
+    <row r="289" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C289" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="4" t="s">
+    <row r="290" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C290" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="290" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="4" t="s">
+    <row r="291" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C291" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="4" t="s">
+    <row r="292" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C292" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="292" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="4" t="s">
+    <row r="293" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C293" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="293" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="4" t="s">
+    <row r="294" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C294" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="4" t="s">
+    <row r="295" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C295" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="295" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="4" t="s">
+    <row r="296" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C296" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="4" t="s">
+    <row r="297" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C297" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="4" t="s">
+    <row r="298" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C298" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="4" t="s">
+    <row r="299" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C299" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="299" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="4" t="s">
+    <row r="300" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C300" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="300" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="4" t="s">
+    <row r="301" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C301" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="4" t="s">
+    <row r="302" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B302" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C302" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="4" t="s">
+    <row r="303" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C303" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="303" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="4" t="s">
+    <row r="304" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C304" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="304" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="4" t="s">
+    <row r="305" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C305" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="4" t="s">
+    <row r="306" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B306" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C306" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="4" t="s">
+    <row r="307" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C307" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="4"/>
-      <c r="C307" s="4" t="s">
+    <row r="308" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="4" t="s">
+    <row r="309" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B309" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C309" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="309" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="4" t="s">
+    <row r="310" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C310" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="310" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="4" t="s">
+    <row r="311" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C311" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="4" t="s">
+    <row r="312" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C312" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="312" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="4" t="s">
+    <row r="313" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C313" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="313" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="4" t="s">
+    <row r="314" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C314" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="314" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="4" t="s">
+    <row r="315" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C315" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="4" t="s">
+    <row r="316" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C316" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="316" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="4" t="s">
+    <row r="317" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C317" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="317" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="4" t="s">
+    <row r="318" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C318" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="318" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="4" t="s">
+    <row r="319" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C319" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="4" t="s">
+    <row r="320" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B320" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="C320" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="320" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="4" t="s">
+    <row r="321" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B321" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C321" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="321" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="4" t="s">
+    <row r="322" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C322" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="322" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="4" t="s">
+    <row r="323" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B323" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C323" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="323" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="4" t="s">
+    <row r="324" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C324" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="324" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="4" t="s">
+    <row r="325" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C325" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="325" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="4" t="s">
+    <row r="326" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B326" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C326" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="326" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B326" s="4" t="s">
+    <row r="327" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B327" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C327" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="327" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B327" s="4" t="s">
+    <row r="328" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B328" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C328" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="328" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B328" s="4" t="s">
+    <row r="329" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B329" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C329" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="329" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="4" t="s">
+    <row r="330" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C330" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="330" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="4" t="s">
+    <row r="331" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B331" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C331" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="331" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="4" t="s">
+    <row r="332" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B332" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C331" s="4" t="s">
+      <c r="C332" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="332" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="4" t="s">
+    <row r="333" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B333" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C333" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="4" t="s">
+    <row r="334" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B334" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C333" s="4" t="s">
+      <c r="C334" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="334" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="4" t="s">
+    <row r="335" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C334" s="4" t="s">
+      <c r="C335" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="335" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="4" t="s">
+    <row r="336" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B336" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="C336" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="336" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="4" t="s">
+    <row r="337" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="C337" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="337" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="4" t="s">
+    <row r="338" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B338" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C338" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="338" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="4" t="s">
+    <row r="339" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B339" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="C339" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="339" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="4" t="s">
+    <row r="340" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B340" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="C340" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="340" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B340" s="4" t="s">
+    <row r="341" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B341" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C341" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B341" s="4" t="s">
+    <row r="342" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B342" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C341" s="4" t="s">
+      <c r="C342" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="4" t="s">
+    <row r="343" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B343" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="C343" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="343" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B343" s="4" t="s">
+    <row r="344" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B344" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C343" s="4" t="s">
+      <c r="C344" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B344" s="4" t="s">
+    <row r="345" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B345" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C344" s="4" t="s">
+      <c r="C345" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="4" t="s">
+    <row r="346" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B346" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="C346" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="4" t="s">
+    <row r="347" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B347" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C346" s="4" t="s">
+      <c r="C347" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="4" t="s">
+    <row r="348" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B348" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C347" s="4" t="s">
+      <c r="C348" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="4" t="s">
+    <row r="349" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B349" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C348" s="4" t="s">
+      <c r="C349" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="4" t="s">
+    <row r="350" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B350" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="C350" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B350" s="4" t="s">
+    <row r="351" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B351" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C350" s="4" t="s">
+      <c r="C351" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B351" s="4" t="s">
+    <row r="352" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C351" s="4" t="s">
+      <c r="C352" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="4" t="s">
+    <row r="353" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C352" s="4" t="s">
+      <c r="C353" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="4" t="s">
+    <row r="354" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C353" s="4" t="s">
+      <c r="C354" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="4" t="s">
+    <row r="355" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C354" s="4" t="s">
+      <c r="C355" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="355" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="4" t="s">
+    <row r="356" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C355" s="4" t="s">
+      <c r="C356" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="4" t="s">
+    <row r="357" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C356" s="4" t="s">
+      <c r="C357" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="4" t="s">
+    <row r="358" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C357" s="4" t="s">
+      <c r="C358" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="4" t="s">
+    <row r="359" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C358" s="4" t="s">
+      <c r="C359" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="4" t="s">
+    <row r="360" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C359" s="4" t="s">
+      <c r="C360" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="4" t="s">
+    <row r="361" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C360" s="4" t="s">
+      <c r="C361" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="4" t="s">
+    <row r="362" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C361" s="4" t="s">
+      <c r="C362" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B362" s="4" t="s">
+    <row r="363" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C362" s="4" t="s">
+      <c r="C363" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="4" t="s">
+    <row r="364" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="C364" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="4" t="s">
+    <row r="365" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C364" s="4" t="s">
+      <c r="C365" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B365" s="4" t="s">
+    <row r="366" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B366" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="C365" s="4" t="s">
+      <c r="C366" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="4" t="s">
+    <row r="367" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B367" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="C366" s="4" t="s">
+      <c r="C367" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="4" t="s">
+    <row r="368" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C367" s="4" t="s">
+      <c r="C368" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B368" s="4" t="s">
+    <row r="369" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B369" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C368" s="4" t="s">
+      <c r="C369" s="3" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="369" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="4" t="s">
+    <row r="370" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C369" s="4" t="s">
+      <c r="C370" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="370" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B370" s="4" t="s">
+    <row r="371" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B371" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="C370" s="4" t="s">
+      <c r="C371" s="3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="371" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="C371" s="6"/>
     </row>
     <row r="372" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B373" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C372" s="4" t="s">
+      <c r="C373" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="373" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="4" t="s">
+    <row r="374" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C373" s="4" t="s">
+      <c r="C374" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="374" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="4" t="s">
+    <row r="375" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B375" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C374" s="4" t="s">
+      <c r="C375" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="375" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B375" s="4" t="s">
+    <row r="376" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B376" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C375" s="4" t="s">
+      <c r="C376" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="376" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="4" t="s">
+    <row r="377" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B377" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C376" s="4" t="s">
+      <c r="C377" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="377" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="4" t="s">
+    <row r="378" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B378" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C377" s="4" t="s">
+      <c r="C378" s="3" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="378" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="C378" s="6"/>
     </row>
     <row r="379" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B380" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C379" s="4" t="s">
+      <c r="C380" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="380" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B380" s="4" t="s">
+    <row r="381" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B381" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C380" s="4" t="s">
+      <c r="C381" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="381" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="4" t="s">
+    <row r="382" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B382" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C381" s="4" t="s">
+      <c r="C382" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="382" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="4" t="s">
+    <row r="383" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B383" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C382" s="4" t="s">
+      <c r="C383" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="383" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="4" t="s">
+    <row r="384" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B384" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C383" s="4" t="s">
+      <c r="C384" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="384" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="4" t="s">
+    <row r="385" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C384" s="4" t="s">
+      <c r="C385" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="385" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="4" t="s">
+    <row r="386" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B386" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C385" s="4" t="s">
+      <c r="C386" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="386" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="4" t="s">
+    <row r="387" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C386" s="4" t="s">
+      <c r="C387" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="387" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="4" t="s">
+    <row r="388" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C387" s="4" t="s">
+      <c r="C388" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="388" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="4" t="s">
+    <row r="389" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C388" s="4" t="s">
+      <c r="C389" s="3" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="389" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="4" t="s">
+    <row r="390" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C389" s="4" t="s">
+      <c r="C390" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="390" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="4" t="s">
+    <row r="391" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B391" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C390" s="4" t="s">
+      <c r="C391" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="391" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="4" t="s">
+    <row r="392" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C391" s="4" t="s">
+      <c r="C392" s="3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="392" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="4" t="s">
+    <row r="393" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C392" s="4" t="s">
+      <c r="C393" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="393" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="4" t="s">
+    <row r="394" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B394" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C393" s="4" t="s">
+      <c r="C394" s="3" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="394" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C394" s="6"/>
     </row>
     <row r="395" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="C395" s="4" t="s">
+      <c r="C396" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="396" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="4" t="s">
+    <row r="397" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C396" s="4" t="s">
+      <c r="C397" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="4" t="s">
+    <row r="398" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C397" s="4" t="s">
+      <c r="C398" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="398" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="4" t="s">
+    <row r="399" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="C398" s="4" t="s">
+      <c r="C399" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="399" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="4" t="s">
+    <row r="400" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C399" s="4" t="s">
+      <c r="C400" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="400" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="4" t="s">
+    <row r="401" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C400" s="4" t="s">
+      <c r="C401" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="401" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="4" t="s">
+    <row r="402" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C401" s="4" t="s">
+      <c r="C402" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="402" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="4" t="s">
+    <row r="403" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C402" s="4" t="s">
+      <c r="C403" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="403" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="4" t="s">
+    <row r="404" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C403" s="4" t="s">
+      <c r="C404" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="404" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="4" t="s">
+    <row r="405" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="C404" s="4" t="s">
+      <c r="C405" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="405" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="4" t="s">
+    <row r="406" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="C405" s="4" t="s">
+      <c r="C406" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="406" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="4" t="s">
+    <row r="407" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C407" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="407" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="4" t="s">
+    <row r="408" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C408" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="408" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="4" t="s">
+    <row r="409" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="C408" s="4" t="s">
+      <c r="C409" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="409" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="4" t="s">
+    <row r="410" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="C409" s="4" t="s">
+      <c r="C410" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="410" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="4" t="s">
+    <row r="411" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C410" s="4" t="s">
+      <c r="C411" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="411" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="4" t="s">
+    <row r="412" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B412" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C412" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="412" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="4" t="s">
+    <row r="413" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C412" s="4" t="s">
+      <c r="C413" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="413" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="4" t="s">
+    <row r="414" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C414" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="414" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="4" t="s">
+    <row r="415" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="C414" s="4" t="s">
+      <c r="C415" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="415" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="4" t="s">
+    <row r="416" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="C416" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="416" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="4" t="s">
+    <row r="417" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C416" s="4" t="s">
+      <c r="C417" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="417" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="4" t="s">
+    <row r="418" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B418" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="C417" s="4" t="s">
+      <c r="C418" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="418" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="4" t="s">
+    <row r="419" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B419" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="C418" s="4" t="s">
+      <c r="C419" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="419" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="4" t="s">
+    <row r="420" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B420" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="C419" s="4" t="s">
+      <c r="C420" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="420" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="4" t="s">
+    <row r="421" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B421" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="C420" s="4" t="s">
+      <c r="C421" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="421" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="4" t="s">
+    <row r="422" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B422" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="C422" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="422" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="4" t="s">
+    <row r="423" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B423" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C422" s="4" t="s">
+      <c r="C423" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="423" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="4" t="s">
+    <row r="424" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="C423" s="4" t="s">
+      <c r="C424" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="424" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="4" t="s">
+    <row r="425" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="C424" s="4" t="s">
+      <c r="C425" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="425" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="4" t="s">
+    <row r="426" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C425" s="4" t="s">
+      <c r="C426" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="426" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="4" t="s">
+    <row r="427" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B427" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C426" s="4" t="s">
+      <c r="C427" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="427" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="4" t="s">
+    <row r="428" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B428" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C427" s="4" t="s">
+      <c r="C428" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="428" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="4" t="s">
+    <row r="429" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B429" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="C428" s="4" t="s">
+      <c r="C429" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="429" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="4" t="s">
+    <row r="430" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C429" s="4" t="s">
+      <c r="C430" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="430" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="4" t="s">
+    <row r="431" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="C430" s="4" t="s">
+      <c r="C431" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="431" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="4" t="s">
+    <row r="432" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C431" s="4" t="s">
+      <c r="C432" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="432" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="4" t="s">
+    <row r="433" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B433" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="C432" s="4" t="s">
+      <c r="C433" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="433" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="4" t="s">
+    <row r="434" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="C433" s="4" t="s">
+      <c r="C434" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="434" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="4" t="s">
+    <row r="435" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B435" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C434" s="4" t="s">
+      <c r="C435" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="435" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="4" t="s">
+    <row r="436" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C436" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="436" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="4" t="s">
+    <row r="437" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B437" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C436" s="4" t="s">
+      <c r="C437" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="437" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="4" t="s">
+    <row r="438" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C438" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="438" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="4" t="s">
+    <row r="439" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B439" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C438" s="4" t="s">
+      <c r="C439" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="439" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="4" t="s">
+    <row r="440" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C439" s="4" t="s">
+      <c r="C440" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="440" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="4" t="s">
+    <row r="441" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B441" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="C440" s="4" t="s">
+      <c r="C441" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="441" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="4" t="s">
+    <row r="442" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B442" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="C442" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="442" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B442" s="4" t="s">
+    <row r="443" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B443" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C442" s="4" t="s">
+      <c r="C443" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="443" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B443" s="4" t="s">
+    <row r="444" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="C443" s="4" t="s">
+      <c r="C444" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="444" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="4" t="s">
+    <row r="445" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="C444" s="4" t="s">
+      <c r="C445" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="445" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="4" t="s">
+    <row r="446" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B446" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C445" s="4" t="s">
+      <c r="C446" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="446" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="4" t="s">
+    <row r="447" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B447" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="C446" s="4" t="s">
+      <c r="C447" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="447" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="4" t="s">
+    <row r="448" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B448" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C447" s="4" t="s">
+      <c r="C448" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="448" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="4" t="s">
+    <row r="449" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B449" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="C448" s="4" t="s">
+      <c r="C449" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="449" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="4" t="s">
+    <row r="450" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B450" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="C449" s="4" t="s">
+      <c r="C450" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="450" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="4" t="s">
+    <row r="451" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B451" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="C450" s="4" t="s">
+      <c r="C451" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="451" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="4" t="s">
+    <row r="452" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B452" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C451" s="4" t="s">
+      <c r="C452" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="452" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="4" t="s">
+    <row r="453" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B453" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="C452" s="4" t="s">
+      <c r="C453" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="453" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="4" t="s">
+    <row r="454" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B454" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="C453" s="4" t="s">
+      <c r="C454" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="454" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="4" t="s">
+    <row r="455" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B455" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="C454" s="4" t="s">
+      <c r="C455" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="455" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="4" t="s">
+    <row r="456" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B456" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C455" s="4" t="s">
+      <c r="C456" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="456" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B456" s="4" t="s">
+    <row r="457" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B457" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="C456" s="4" t="s">
+      <c r="C457" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="457" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B457" s="4" t="s">
+    <row r="458" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B458" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="C457" s="4" t="s">
+      <c r="C458" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="458" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="4" t="s">
+    <row r="459" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B459" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="C458" s="4" t="s">
+      <c r="C459" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="459" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B459" s="4" t="s">
+    <row r="460" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B460" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="C459" s="4" t="s">
+      <c r="C460" s="3" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="460" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="C460" s="6"/>
     </row>
     <row r="461" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C461" s="5"/>
+    </row>
+    <row r="462" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B462" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="C461" s="4" t="s">
+      <c r="C462" s="3" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="462" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="4" t="s">
+    <row r="463" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B463" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="C462" s="4" t="s">
+      <c r="C463" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="463" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B463" s="4" t="s">
+    <row r="464" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B464" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C463" s="4" t="s">
+      <c r="C464" s="3" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="464" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B464" s="4" t="s">
+    <row r="465" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B465" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="C464" s="4" t="s">
+      <c r="C465" s="3" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="465" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B465" s="4" t="s">
+    <row r="466" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B466" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="C465" s="4" t="s">
+      <c r="C466" s="3" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="466" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B466" s="4" t="s">
+    <row r="467" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B467" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="C466" s="4" t="s">
+      <c r="C467" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="467" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B467" s="4" t="s">
+    <row r="468" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B468" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="C467" s="4" t="s">
+      <c r="C468" s="3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="468" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B468" s="4" t="s">
+    <row r="469" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B469" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="C468" s="4" t="s">
+      <c r="C469" s="3" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="469" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B469" s="4" t="s">
+    <row r="470" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B470" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="C469" s="4" t="s">
+      <c r="C470" s="3" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="470" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B470" s="4" t="s">
+    <row r="471" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B471" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="C470" s="4" t="s">
+      <c r="C471" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="471" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B471" s="4" t="s">
+    <row r="472" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B472" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="C471" s="4" t="s">
+      <c r="C472" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="472" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B472" s="4" t="s">
+    <row r="473" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="C472" s="4" t="s">
+      <c r="C473" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="4" t="s">
+    <row r="474" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B474" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="C473" s="4" t="s">
+      <c r="C474" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B474" s="4" t="s">
+    <row r="475" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="C474" s="4" t="s">
+      <c r="C475" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="475" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="4" t="s">
+    <row r="476" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B476" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="C475" s="4" t="s">
+      <c r="C476" s="3" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="476" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="4" t="s">
+    <row r="477" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B477" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="C476" s="4" t="s">
+      <c r="C477" s="3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="477" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B477" s="4" t="s">
+    <row r="478" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B478" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="C478" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="478" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B478" s="4" t="s">
+    <row r="479" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B479" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="C478" s="4" t="s">
+      <c r="C479" s="3" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="479" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B479" s="4" t="s">
+    <row r="480" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B480" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="C479" s="4" t="s">
+      <c r="C480" s="3" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="480" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B480" s="4" t="s">
+    <row r="481" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B481" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C480" s="4" t="s">
+      <c r="C481" s="3" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="481" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B481" s="4" t="s">
+    <row r="482" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B482" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="C482" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="482" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B482" s="4" t="s">
+    <row r="483" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B483" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="C482" s="4" t="s">
+      <c r="C483" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="483" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B483" s="4" t="s">
+    <row r="484" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B484" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="C483" s="4" t="s">
+      <c r="C484" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="484" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B484" s="4" t="s">
+    <row r="485" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B485" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="C484" s="4" t="s">
+      <c r="C485" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="485" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B485" s="4" t="s">
+    <row r="486" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B486" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C485" s="4" t="s">
+      <c r="C486" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="486" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B486" s="4" t="s">
+    <row r="487" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B487" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="C486" s="4" t="s">
+      <c r="C487" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="487" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B487" s="4" t="s">
+    <row r="488" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B488" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="C487" s="4" t="s">
+      <c r="C488" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="488" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B488" s="4" t="s">
+    <row r="489" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B489" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="C488" s="4" t="s">
+      <c r="C489" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="489" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B489" s="4" t="s">
+    <row r="490" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B490" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="C489" s="4" t="s">
+      <c r="C490" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="490" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B490" s="4" t="s">
+    <row r="491" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B491" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="C490" s="4" t="s">
+      <c r="C491" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="491" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B491" s="4" t="s">
+    <row r="492" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B492" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="C492" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="492" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="493" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="494" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="495" spans="2:3" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7444,6 +7446,7 @@
     <row r="600" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="601" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="602" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/uploads/source_file.xlsx
+++ b/uploads/source_file.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2240C-3C91-4C32-A321-E9307F646B5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E89D0B-0261-4BFD-BD2C-125ABE5490A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,111 +16,34 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
+  <si>
+    <t>Наименование</t>
+  </si>
   <si>
     <t>СИБРТЕХ Ведро строительное 20л</t>
   </si>
   <si>
+    <t>СИБРТЕХ Таз строительный 65л</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Таз строительный 40л</t>
+  </si>
+  <si>
     <t>СИБРТЕХ Ведро строительное 12л</t>
   </si>
   <si>
-    <t>СИБРТЕХ Таз строительный 65л</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Таз строительный 40л</t>
-  </si>
-  <si>
-    <t>ЭРА держатель пластиковый 55*110 511ДКП</t>
-  </si>
-  <si>
-    <t>SELENT-100 Soler and Palay вентилятор silent - 100 CZ</t>
-  </si>
-  <si>
-    <t>ЭРА колено вертикал.пластик 110*55 511КВП</t>
-  </si>
-  <si>
-    <t>ЭРА вентилятор экономный E 125 S</t>
-  </si>
-  <si>
-    <t>ЭРА соединитель угловой с плоского на круглый ( с 55х110 на ф100) 511СК10КП</t>
-  </si>
-  <si>
-    <t>ЭРА соединитель 55*110 511СКП</t>
-  </si>
-  <si>
-    <t>ЭРА колено горизонтал.пластик 110*55 511КГП</t>
-  </si>
-  <si>
-    <t>ЭРА соединитель эксцентрик.с переходом с круглого ф100 на плоский 110*55 511СК</t>
-  </si>
-  <si>
-    <t>ЭРА труба прямой воздуховод ф 110*55-100см 511ВП1</t>
-  </si>
-  <si>
-    <t>ЭРА труба круглая воздух.ф100 - 100см 10ВП1</t>
-  </si>
-  <si>
-    <t>ЭРА решетка 15х15 1515РЦ</t>
-  </si>
-  <si>
-    <t>ЭРА решетка 25х25 2525РЦ</t>
-  </si>
-  <si>
-    <t>ЭРА решетка 21х21</t>
-  </si>
-  <si>
-    <t>ЭРА соединитель с обратным клапаном 55*110 511СКПО</t>
-  </si>
-  <si>
-    <t>ЭРА труба прямой воздуховод ф 110*55-200см 511ВП2</t>
-  </si>
-  <si>
-    <t>ЭРА Алюминиевый воздуховод Ф 100 до 3м. 10ВА</t>
-  </si>
-  <si>
-    <t>ЭРА пирамида от 80 до 160 PU16.15.12,5.12.10.8</t>
-  </si>
-  <si>
-    <t>ЭРА колено круглое ф100 10ККП</t>
-  </si>
-  <si>
-    <t>ЭРА колено ф100-45гр 10ККП45</t>
-  </si>
-  <si>
-    <t>ЭРА Алюминиевый воздуховод Ф 80 до 3м. 08ВА</t>
-  </si>
-  <si>
-    <t>ЭРА труба круглая воздух.ф100 - 200см 10ВП2</t>
-  </si>
-  <si>
-    <t>ЭРА Алюминиевый воздуховод Ф 110 до 3м. 11ВА</t>
-  </si>
-  <si>
-    <t>ЭРА Алюминиевый воздуховод Ф 120 до 3м. 12ВА</t>
-  </si>
-  <si>
-    <t>ЭРА Алюминиевый воздуховод Ф 125 до 3м. 12,5ВА</t>
-  </si>
-  <si>
-    <t>ЭРА тройник ф100 10ТП</t>
-  </si>
-  <si>
-    <t>ЭРА соединитель с обратным клапаном ф100 10СКПО</t>
-  </si>
-  <si>
-    <t>ЭРА соединитель ф100 10СКП</t>
-  </si>
-  <si>
-    <t>ЭРА тройник т-образный 55*110 511ТПП</t>
+    <t>Момоент Клей экспресс МВ-50 (жид.гвозди)</t>
+  </si>
+  <si>
+    <t>Cover краска 5л</t>
+  </si>
+  <si>
+    <t>PUTECH Пены 0,5л</t>
   </si>
   <si>
     <t>Грунт по мет. ГФ-021 (1л)</t>
@@ -127,72 +55,90 @@
     <t>Cover Клей ПВА 5кг</t>
   </si>
   <si>
+    <t>DenBraven Силиконовый гермет Delta 260мл</t>
+  </si>
+  <si>
     <t>Oscar Клей для стелообоев 10кг</t>
   </si>
   <si>
+    <t>IRFIX GUN Пена профессиональная зима(750мл)</t>
+  </si>
+  <si>
+    <t>IRFIX Силикон санитарный (310мл)</t>
+  </si>
+  <si>
     <t>IRFIX МОНТАЖ универсальный (жидкие гвозди)</t>
   </si>
   <si>
-    <t>IRFIX Силикон санитарный (310мл)</t>
+    <t>IRFix Акриловый герметик 310 мл</t>
   </si>
   <si>
     <t>IRFIX Proff - Клей для кладки блоков (750мл)</t>
   </si>
   <si>
-    <t>IRFix Акриловый герметик 310 мл</t>
-  </si>
-  <si>
-    <t>IRFIX GUN Пена профессиональная зима(750мл)</t>
-  </si>
-  <si>
     <t>IRFIX Очиститель монтажной пены (500мл.)</t>
   </si>
   <si>
+    <t>Фанера 10мм 1,5*1,5</t>
+  </si>
+  <si>
     <t>Фанера 8мм 1,5*1,5</t>
   </si>
   <si>
+    <t>Брус обрезной 50*50 3м</t>
+  </si>
+  <si>
+    <t>Фанера 15мм 1,5*1,5</t>
+  </si>
+  <si>
     <t>Фанера 20мм 1,5*1,5</t>
   </si>
   <si>
-    <t>Фанера 10мм 1,5*1,5</t>
-  </si>
-  <si>
-    <t>Фанера 15мм 1,5*1,5</t>
-  </si>
-  <si>
-    <t>Брус обрезной 50*50 3м</t>
-  </si>
-  <si>
-    <t>Брус обрезной 40*40 3м</t>
-  </si>
-  <si>
     <t>Доска обрезная 100*25 3м</t>
   </si>
   <si>
+    <t>Кнауф, Элемент пола. 120*600*20 мм</t>
+  </si>
+  <si>
+    <t>Кнауф ГВЛ 2500*1200*10</t>
+  </si>
+  <si>
     <t>Кнауф ГВЛ 2500*1200*12,5</t>
   </si>
   <si>
-    <t>Кнауф ГВЛ 2500*1200*10</t>
-  </si>
-  <si>
-    <t>Кнауф, Элемент пола. 120*600*20 мм</t>
+    <t>РДС Засыпка для пола 40л (0,05м3)</t>
+  </si>
+  <si>
+    <t>Прямой подвес КНАУФ для профиля потолок</t>
+  </si>
+  <si>
+    <t>Профиль-углозащитный 30*30*3000</t>
+  </si>
+  <si>
+    <t>Кнауф Дихтунсбанд (лента для проф.) 30мм*30м</t>
+  </si>
+  <si>
+    <t>Албес Проф. маячковый 19*6 Стронг</t>
+  </si>
+  <si>
+    <t>Волма ГКЛ 2500*1200*9,5</t>
+  </si>
+  <si>
+    <t>Кнауф Флехендихтбанд (лента для гидроиз.) 10*120/70 мм</t>
   </si>
   <si>
     <t>Волма ГКЛ 2500*1200*12,5</t>
   </si>
   <si>
-    <t>Кнауф Дихтунсбанд (лента для проф.) 30мм*30м</t>
-  </si>
-  <si>
-    <t>Кнауф Флехендихтбанд (лента для гидроиз.) 10*120/70 мм</t>
-  </si>
-  <si>
-    <t>Волма ГКЛ 2500*1200*9,5</t>
-  </si>
-  <si>
     <t>Волма ГКЛв 2500*1200*9,5</t>
   </si>
   <si>
+    <t>Албес Профиль ПС-2 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>Албес Профиль ПН-2 (0,5) Стандарт</t>
+  </si>
+  <si>
     <t>Волма ГКЛв 2500*1200*12,5</t>
   </si>
   <si>
@@ -202,105 +148,126 @@
     <t>Соединитель профиля КНАУФ одноуровневый(Краб)</t>
   </si>
   <si>
-    <t>Албес Профиль ПН-2 (0,5) Стандарт</t>
-  </si>
-  <si>
-    <t>Албес Профиль ПС-2 (0,5) Стандарт</t>
-  </si>
-  <si>
     <t>Албес Краб для профиля ПП 60х27</t>
   </si>
   <si>
-    <t>Албес Проф. маячковый 19*6 Стронг</t>
+    <t>Албес Уголок PL 21*21 (0,5) Стандарт</t>
+  </si>
+  <si>
+    <t>Албес Профиль ППН-27*28 (0,5) Стандарт</t>
   </si>
   <si>
     <t>Албес Профиль ПП 60*27 (0,5) Стандарт</t>
   </si>
   <si>
-    <t>Албес Уголок PL 21*21 (0,5) Стандарт</t>
-  </si>
-  <si>
     <t>Албес Проф. маячковый 19*10 Стронг</t>
   </si>
   <si>
     <t>Албес Прямой подвес для ПП-60х27</t>
   </si>
   <si>
-    <t>Албес Профиль ППН-27*28 (0,5) Стандарт</t>
-  </si>
-  <si>
-    <t>Албес Профиль ППН-27*28 (0,65) DIN Strong</t>
-  </si>
-  <si>
-    <t>Албес Профиль ПП 60*27 (0,65) DIN Strong</t>
-  </si>
-  <si>
-    <t>Албес Профиль ПН-2 (0,65) DIN Strong</t>
-  </si>
-  <si>
-    <t>Албес Профиль ПС-2 (0,65) DIN Strong</t>
+    <t>СИБРТЕХ Валик 250 (80114)</t>
+  </si>
+  <si>
+    <t>Гирпаинт Валик 250\12d40</t>
+  </si>
+  <si>
+    <t>Политех Валик 250 в сборе</t>
+  </si>
+  <si>
+    <t>Stayer DUALON Валик 240мм в сборе</t>
+  </si>
+  <si>
+    <t>ИНТЕК Кисть-макловица 150*70</t>
+  </si>
+  <si>
+    <t>ИНТЕК Кисть-макловица 180*80</t>
+  </si>
+  <si>
+    <t>БИБЕР Кисть Макловица 150*50мм</t>
+  </si>
+  <si>
+    <t>БИБЕР Кисть Макловица 170*70мм</t>
+  </si>
+  <si>
+    <t>Промис Инструмент Кисть плоск 2 50мм дер.р</t>
+  </si>
+  <si>
+    <t>Ручка телескопическая мет. 0,75-1,5</t>
+  </si>
+  <si>
+    <t>БИБЕР Ванночка для краски 330*350мм</t>
+  </si>
+  <si>
+    <t>MATRIX Миксер 100*450 SDS+</t>
+  </si>
+  <si>
+    <t>MATRIX Мини-валик сменный НЕЙЛОН 100\12d16</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская дер.руч Евро 3\4 20мм</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская Стандарт 2,0 50мм</t>
+  </si>
+  <si>
+    <t>MATRIX Телескопическая ручка 1,0-2м</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть Макловица 170*70мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Валик Игольчатый 300мм (26 мм)</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть радиаторная 2</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская Стандарт 2,5 63мм</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть Макловица 150*70мм</t>
+  </si>
+  <si>
+    <t>Sparta Кисть ракля 30*120</t>
+  </si>
+  <si>
+    <t>MATRIX Ручка для мини-валиков 100мм D6мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Валик Игольчатый 300мм (13 мм)</t>
+  </si>
+  <si>
+    <t>MATRIX Кисть плоская Стандарт 1,5 38мм</t>
+  </si>
+  <si>
+    <t>Sparta Кисть плоская 4" 100мм</t>
   </si>
   <si>
     <t>Sparta Ванночка для краски 320*320мм</t>
   </si>
   <si>
-    <t>Sparta Карандаш малярный 180 мм</t>
-  </si>
-  <si>
-    <t>MATRIX Мини-валик сменный НЕЙЛОН 100\12d16</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть плоская дер.руч Евро 3\4 20мм</t>
-  </si>
-  <si>
-    <t>MATRIX Миксер 100*450 SDS+</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть радиаторная 2</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Валик Игольчатый 300мм (26 мм)</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть плоская Стандарт 2,0 50мм</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Валик Игольчатый 300мм (13 мм)</t>
-  </si>
-  <si>
-    <t>Sparta Кисть плоская 4" 100мм</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть Макловица 170*70мм</t>
-  </si>
-  <si>
-    <t>MATRIX Ручка для мини-валиков 100мм D6мм</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть плоская Стандарт 1,5 38мм</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть плоская Стандарт 2,5 63мм</t>
-  </si>
-  <si>
     <t>MATRIX Кисть радиаторная 1,5</t>
   </si>
   <si>
-    <t>MATRIX Телескопическая ручка 1,0-2м</t>
-  </si>
-  <si>
-    <t>Sparta Кисть ракля 30*120</t>
-  </si>
-  <si>
-    <t>MATRIX Кисть Макловица 150*70мм</t>
-  </si>
-  <si>
     <t>MATRIX Кисть плоская пласт.р Евро 3\4 20мм</t>
   </si>
   <si>
     <t>MATRIX Валик 250 мм в сборе</t>
   </si>
   <si>
+    <t>Серпянка 50мм*90м (100,00)</t>
+  </si>
+  <si>
+    <t>TYTAN Pro. Пена монт. зимняя 750мл</t>
+  </si>
+  <si>
+    <t>WAND MASTER Серпянка 50мм*90м</t>
+  </si>
+  <si>
+    <t>Kolotek Стеклосетка малярн. 5*5мм 1*30м</t>
+  </si>
+  <si>
     <t>Kolotek Стеклосетка малярн. 2*2мм 1*30м</t>
   </si>
   <si>
@@ -313,48 +280,54 @@
     <t>Oscar Стеклохолст малярный 50м 25г\м2</t>
   </si>
   <si>
-    <t>Kolotek Стеклосетка малярн. 5*5мм 1*30м</t>
-  </si>
-  <si>
     <t>Серпянка 50мм*90м</t>
   </si>
   <si>
+    <t>Tech-KREP Грибок для утепл 10/80</t>
+  </si>
+  <si>
+    <t>Арматура D10</t>
+  </si>
+  <si>
+    <t>Саморез по дереву 4,2*63мм(1кг)</t>
+  </si>
+  <si>
+    <t>Саморез по дереву 4,2*70мм(1кг)</t>
+  </si>
+  <si>
     <t>Уголок крепежный 70*70 мет</t>
   </si>
   <si>
+    <t>Шпилька 8*1000</t>
+  </si>
+  <si>
+    <t>Нагель 182</t>
+  </si>
+  <si>
     <t>Нагель 132</t>
   </si>
   <si>
-    <t>Шпилька 8*1000</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Хомуты пластиковые белые 100шт 300*3,6</t>
+    <t>Нагель 152</t>
   </si>
   <si>
     <t>FIXER Саморез ГВЛ 3,9*25мм(1кг)</t>
   </si>
   <si>
+    <t>FIXER Саморез по гипсокарт. мет. 3,5*25 (1кг)</t>
+  </si>
+  <si>
     <t>FIXER Саморез по дереву 4,2*64мм(1кг)</t>
   </si>
   <si>
+    <t>ZITAR Саморез гипсокартон-метал 3,5*35(1кг)</t>
+  </si>
+  <si>
+    <t>FIXER Саморез по дереву 4,2*70мм(1кг)</t>
+  </si>
+  <si>
     <t>Уголок металлический 40*40(1м.п.)</t>
   </si>
   <si>
-    <t>ZITAR Саморез гипсокартон-метал 3,5*35(1кг)</t>
-  </si>
-  <si>
-    <t>Нагель 152</t>
-  </si>
-  <si>
-    <t>FIXER Саморез по гипсокарт. мет. 3,5*25 (1кг)</t>
-  </si>
-  <si>
-    <t>FIXER Саморез по дереву 4,2*70мм(1кг)</t>
-  </si>
-  <si>
-    <t>Арматура D10</t>
-  </si>
-  <si>
     <t>FIXER Саморез c пресшайбой металл 4,2*13 (1кг)</t>
   </si>
   <si>
@@ -364,34 +337,40 @@
     <t>FIXER Саморез гипсокартон-метал 3,5*35(1кг)</t>
   </si>
   <si>
-    <t>Нагель 182</t>
-  </si>
-  <si>
     <t>Tech-KREP Грибок для утепл 10/100</t>
   </si>
   <si>
+    <t>Подоконник ПВХ</t>
+  </si>
+  <si>
+    <t>Заглушка для подоконника</t>
+  </si>
+  <si>
     <t>Сендвич панель на откосы</t>
   </si>
   <si>
-    <t>Заглушка для подоконника</t>
-  </si>
-  <si>
     <t>Волма ПГП 667*500*100 полн. влаг</t>
   </si>
   <si>
+    <t>Волма ПГП 667*500*80 полн. об.</t>
+  </si>
+  <si>
+    <t>Волма ПГП 667*500*80 полн. влаг.</t>
+  </si>
+  <si>
     <t>Г\С Блок 600*250*100 D600</t>
   </si>
   <si>
     <t>Г\С Блок 600*250*200</t>
   </si>
   <si>
-    <t>Волма ПГП 667*500*80 полн. влаг.</t>
-  </si>
-  <si>
     <t>ЭКО Г\С Блок 600*250*75 D500</t>
   </si>
   <si>
-    <t>Г\С Блок 600*250*50 D500</t>
+    <t>Г\С Блок 600*250*50</t>
+  </si>
+  <si>
+    <t>Арочный уголок пласт. 3м</t>
   </si>
   <si>
     <t>Лента монтажная перфорированная LP-V 17*0,55(20м)</t>
@@ -400,73 +379,79 @@
     <t>СВ-Форум Кромочная лента 0,1*20м</t>
   </si>
   <si>
+    <t>СИБРТЕХ Скотч малярный 50мм*(эконом.)</t>
+  </si>
+  <si>
+    <t>Оргалит 2,14х1,22х4 (3,2мм)</t>
+  </si>
+  <si>
     <t>Сибртех Крестик для плитки 1,5 (100шт)</t>
   </si>
   <si>
-    <t>Подоконник пвх 500*3000</t>
+    <t>СИБРТЕХ Крестик для плитки 2.0 (100шт)</t>
+  </si>
+  <si>
+    <t>IEK Изолента ПВХ 15мм*20м</t>
+  </si>
+  <si>
+    <t>Пленка полиэтиленовая 60мкр 3*10</t>
+  </si>
+  <si>
+    <t>Пленка полиэтиленовая 80мкр 3*10</t>
+  </si>
+  <si>
+    <t>БИБЕР Маска малярная Лепесток 10шт</t>
+  </si>
+  <si>
+    <t>Исток Полу-маска</t>
   </si>
   <si>
     <t>СИБРТЕХ Крестик для плитки 3.0 (100шт)</t>
   </si>
   <si>
-    <t>MATRIX Брусок для шлифования 210*105 с зажимами</t>
+    <t>Sparta Маска фильтрующая</t>
+  </si>
+  <si>
+    <t>MATRIX Лезвия 18 мм (10шт)</t>
+  </si>
+  <si>
+    <t>MATRIX арм. скотч 48мм*10м</t>
   </si>
   <si>
     <t>X-Glass полипроп. строительное волокно 600гр</t>
   </si>
   <si>
-    <t>MATRIX арм. скотч 48мм*10м</t>
-  </si>
-  <si>
-    <t>Пленка полиэтиленовая 200мкр 3*10</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ СВП комплект зажим+клин 40/40</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Лопата совковая, без черенка</t>
-  </si>
-  <si>
-    <t>Черенок для лопаты</t>
-  </si>
-  <si>
     <t>СИБРТЕХ Шпатель обойный 280 мм</t>
   </si>
   <si>
+    <t>Веник</t>
+  </si>
+  <si>
     <t>СИБРТЕХ Коронка по стеклу и керамической плитке, 68 х 55 мм</t>
   </si>
   <si>
+    <t>СИБРТЕХ Коронка по стеклу и керамической плитке, 38 х 55 мм</t>
+  </si>
+  <si>
+    <t>Sparta Крестики для плитки 1,5мм (250шт)</t>
+  </si>
+  <si>
     <t>Matrix Валик обойный 150 мм</t>
   </si>
   <si>
-    <t>Ветош 20 м</t>
-  </si>
-  <si>
-    <t>MATRIX Диск алмазн. отрезной 230*22,2</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Пистолет для пены</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Крестик для плитки 2.0 (100шт)</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Коронка по стеклу и керамической плитке, 38 х 55 мм</t>
-  </si>
-  <si>
     <t>Sparta Крестики для плитки 2,5мм (250шт)</t>
   </si>
   <si>
-    <t>Sparta Крестики для плитки 1,5мм (250шт)</t>
-  </si>
-  <si>
-    <t>Пленка полиэтиленовая 80мкр 3*10</t>
-  </si>
-  <si>
     <t>Метталич. сетка 0,5*2м - 5 м2\рулон</t>
   </si>
   <si>
-    <t>Пленка полиэтиленовая 60мкр 3*10</t>
+    <t>Перчатки х\б 2й облив 10\600 пара</t>
+  </si>
+  <si>
+    <t>Керамзит фр. 10-20 (0,05 м3)</t>
+  </si>
+  <si>
+    <t>Matrix Диск алмазный отрезной сплошной, 125 х 22,2 мм, сухая резка</t>
   </si>
   <si>
     <t>Sparta Крестики для плитки 3,0мм (250шт)</t>
@@ -475,121 +460,136 @@
     <t>Elfe Пакет для мусора 240л(10шт)</t>
   </si>
   <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 450мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Лента малярная 48*50м</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ скотч двухсторонний 50*10м</t>
+  </si>
+  <si>
+    <t>Elfe Совок для мусора 280*195</t>
+  </si>
+  <si>
     <t>Matrix Зубило плоское, 14 х 20 х 250 мм, SDS PLUS</t>
   </si>
   <si>
-    <t>СИБРТЕХ Шпатель из нерж.стали 450мм</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ скотч двухсторонний 50*10м</t>
-  </si>
-  <si>
-    <t>Elfe Совок для мусора 280*195</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Лента малярная 48*50м</t>
-  </si>
-  <si>
-    <t>Веник</t>
+    <t>MATRIX Лезвия 25 мм (10шт)</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Скотч прозрачный 48*25м</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Полумаска фильтрующая</t>
   </si>
   <si>
     <t>Металлическая сетка карта 50*50 - 0,5*2м</t>
   </si>
   <si>
-    <t>MATRIX Лезвия 18 мм (10шт)</t>
-  </si>
-  <si>
-    <t>Matrix Диск алмазный отрезной сплошной, 125 х 22,2 мм, сухая резка</t>
-  </si>
-  <si>
-    <t>MATRIX Лезвия 25 мм (10шт)</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Скотч малярный 50мм*(эконом.)</t>
-  </si>
-  <si>
-    <t>Керамзит фр. 10-20 (0,05 м3)</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Полумаска фильтрующая</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Скотч прозрачный 48*25м</t>
-  </si>
-  <si>
-    <t>Засыпка для пола 30л (0,03м3)</t>
-  </si>
-  <si>
     <t>Перчатки вязанные х\б, 3 нити с ПВХ 10\600</t>
   </si>
   <si>
-    <t>Перчатки х\б 2й облив 10\600 пара</t>
-  </si>
-  <si>
     <t>Мешки строительные (зел.)</t>
   </si>
   <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 100мм</t>
+  </si>
+  <si>
+    <t>Sparta Шпатель из нерж стали 100мм</t>
+  </si>
+  <si>
+    <t>БИБЕР Шпатель из нерж стали 100мм</t>
+  </si>
+  <si>
+    <t>Интек Шпатель из нерж стали 350мм</t>
+  </si>
+  <si>
+    <t>БИБЕР Шпатель из нерж стали 350мм</t>
+  </si>
+  <si>
+    <t>Интек Шпатель из нерж стали 250мм</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Шпатель из нерж.стали 200мм зуб 8*8</t>
+  </si>
+  <si>
     <t>СИБРТЕХ Шпатель из нерж.стали 200мм зуб 6*6</t>
   </si>
   <si>
-    <t>Sparta Кельма бетонщика стальная 200 мм</t>
-  </si>
-  <si>
-    <t>СИБРТЕХ Шпатель из нерж.стали 200мм зуб 8*8</t>
-  </si>
-  <si>
     <t>СИБРТЕХ Правило 2,5м</t>
   </si>
   <si>
     <t>СИБРТЕХ Правило 1,5м</t>
   </si>
   <si>
-    <t>СИБРТЕХ Шпатель из нерж.стали 100мм</t>
+    <t>СИБРТЕХ Шпатель из нерж.стали 350мм</t>
   </si>
   <si>
     <t>СИБРТЕХ Правило 3м</t>
   </si>
   <si>
-    <t>СИБРТЕХ Шпатель из нерж.стали 350мм</t>
-  </si>
-  <si>
     <t>СИБРТЕХ Шпатель из нерж.стали 250мм</t>
   </si>
   <si>
+    <t>Unis Клей UNIFLEX U-100</t>
+  </si>
+  <si>
+    <t>Основит Грунтовка Унконт LP 51 10л</t>
+  </si>
+  <si>
+    <t>Кнауф Тиффенгрунд 10кг</t>
+  </si>
+  <si>
+    <t>Unis Грунт (ГП) Глубокого проникновен 5л</t>
+  </si>
+  <si>
+    <t>Русеан Штукатурка цем. м-150 40кг</t>
+  </si>
+  <si>
+    <t>Старатели Бетон-контакт 20кг</t>
+  </si>
+  <si>
+    <t>Старатели Бетон-контакт 5кг</t>
+  </si>
+  <si>
+    <t>Кромочная лента 0,1*20м</t>
+  </si>
+  <si>
+    <t>Кнауф Ротбанд-паста Профи 18кг</t>
+  </si>
+  <si>
+    <t>Основит Штукатурка Гипсвэлл PG 25 W бел 30кг</t>
+  </si>
+  <si>
+    <t>Unis Шпатлевка полим. БЕЛЫЙ ЖЕМЧУГ 18кг</t>
+  </si>
+  <si>
     <t>Кнауфт Фуген Гидро 30кг</t>
   </si>
   <si>
     <t>DIANOGIPS SuperFinish шпатлевка гипсовая 28кг/17л</t>
   </si>
   <si>
+    <t>Кнауф Перлфикс 30кг</t>
+  </si>
+  <si>
+    <t>Кнауф Гидроизоляция Флехендихт 5кг</t>
+  </si>
+  <si>
+    <t>Unis Штукатурка гипс. Теплон бел. 30кг</t>
+  </si>
+  <si>
+    <t>IRFIX Бетонконтакт 20кг</t>
+  </si>
+  <si>
+    <t>Unis Алебастр п\э 5 кг</t>
+  </si>
+  <si>
     <t>Кнауф Шпатлевка гипс. Унифлот 25кг</t>
   </si>
   <si>
-    <t>Кнауф Гидроизоляция Флехендихт 5кг</t>
-  </si>
-  <si>
-    <t>Unis Алебастр п\э 5 кг</t>
-  </si>
-  <si>
-    <t>Кнауф Полимер Финиш 20 кг</t>
-  </si>
-  <si>
-    <t>Кнауф Ротбанд-паста Профи 18кг</t>
-  </si>
-  <si>
-    <t>Кнауф Перлфикс 30кг</t>
-  </si>
-  <si>
-    <t>Unis Штукатурка гипс. Теплон бел. 30кг</t>
-  </si>
-  <si>
-    <t>Unis Грунт (ГП) Глубокого проникновен 5л</t>
-  </si>
-  <si>
-    <t>IRFIX Бетонконтакт 20кг</t>
-  </si>
-  <si>
-    <t>IRFIX Бетонконтакт 5кг</t>
+    <t>weber.vetonit Шпатлевка LR+ 25кг</t>
   </si>
   <si>
     <t>Кнауф Ротбанд 30кг Красногорский</t>
@@ -598,465 +598,483 @@
     <t>Unis Грунт (ГП) Глубокого проникновен 10л</t>
   </si>
   <si>
-    <t>weber.vetonit Шпатлевка LR+ 25кг</t>
+    <t>Unis Ровнитель Горизонт ультра 20кг</t>
+  </si>
+  <si>
+    <t>ЛЮИКС Пескобетон М300 40кг</t>
   </si>
   <si>
     <t>Unis Клеевая смесь ПЛЮС 25кг</t>
   </si>
   <si>
-    <t>ЛЮИКС Пескобетон М300 40кг</t>
-  </si>
-  <si>
-    <t>Unis Ровнитель Горизонт ультра 20кг</t>
+    <t>Заглушка 1\2 вн.р. мет.</t>
+  </si>
+  <si>
+    <t>Millenium Накиданая гайка 20*1\2</t>
+  </si>
+  <si>
+    <t>Millennium Колено 2е наст 90 ВР бел.25-1\2</t>
   </si>
   <si>
     <t>Millennium труба для В.К. ПП 40*1,8*1500</t>
   </si>
   <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*1000</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*250</t>
+  </si>
+  <si>
+    <t>Политэк Крест одн. 110*110*110/45</t>
+  </si>
+  <si>
+    <t>Политэк Крест одн. 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>РосТурПласт Крест одн 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>РосТурПласт Крест одн.110*110*110*45</t>
+  </si>
+  <si>
+    <t>РосТурПласт Муфта комб. разъемн. внут. рез 25*3/4"</t>
+  </si>
+  <si>
+    <t>РосТурПласт Угольник комб. с креп.2й на.р 20*1/2"</t>
+  </si>
+  <si>
+    <t>РосТурПласт Угольник комб. с креп.2й на.р 25*1/2"</t>
+  </si>
+  <si>
+    <t>ТрубПласт Крест одн. 110*110*110/45</t>
+  </si>
+  <si>
+    <t>ТрубПласт Крест одн. 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>ТрубПласт Крестовина одноплоскост 110*110*110/45</t>
+  </si>
+  <si>
+    <t>Millennium Муфта переходная 1\2" * 3\4"</t>
+  </si>
+  <si>
+    <t>Millennium Угольник 20*90</t>
+  </si>
+  <si>
+    <t>Заглушка 3\4 с нр.р мет.</t>
+  </si>
+  <si>
+    <t>ViEiR Заглушка 1\2 с нар.р</t>
+  </si>
+  <si>
+    <t>Millenium Бокс монтажный внутр.</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 фронт</t>
+  </si>
+  <si>
+    <t>REHAU Крепежная планка</t>
+  </si>
+  <si>
+    <t>ELEGANT Американка 3\4 прямая</t>
+  </si>
+  <si>
+    <t>ТрубПласт Крестовина одноплоск 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>REHAU Переход. с накид. гайкой 16-G 1\2 MX</t>
+  </si>
+  <si>
+    <t>Millennium Крест 2х плск. 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>Лобнинский СФ Унитаз б/бачка с косым вып</t>
+  </si>
+  <si>
+    <t>Millenium Угол 20-1\2 внут. НАСТЕН. (водороз)</t>
+  </si>
+  <si>
+    <t>Millenium Коллекторная груп 3 вых - отопл.</t>
+  </si>
+  <si>
+    <t>Millennium Крест. одн. 50*50*50/45</t>
+  </si>
+  <si>
+    <t>РосТурПласт Муфта гибкая ПП 50</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5</t>
+  </si>
+  <si>
+    <t>FAR Рег. коллек плоск.уплот 3\4* 2вых 1\2</t>
+  </si>
+  <si>
+    <t>Millennium Крест. 110*110*110*110/87,5</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45 с вы 50 лев+прав</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*500</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45 с вых 50 правый</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*90 с вых 50 лев+прав</t>
+  </si>
+  <si>
+    <t>Редукция 50\40</t>
+  </si>
+  <si>
+    <t>FAR Рег. коллек плоск.уплот 3\4* 3вых 1\2</t>
+  </si>
+  <si>
+    <t>REHAU Переход с накид. гайкой 20-G 1\2 RX</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45 с выходом 50 левый</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 прямой</t>
+  </si>
+  <si>
     <t>REHAU Угол настен.корот.патруб.вн\р16-1\2</t>
   </si>
   <si>
-    <t>ITAP Minipress регулятор давления 361</t>
-  </si>
-  <si>
-    <t>Millenium Бокс монтажный внутр.</t>
-  </si>
-  <si>
-    <t>Millennium Крест 2х плск. 110*110*50/87,5</t>
-  </si>
-  <si>
-    <t>ТрубПласт Крестовина одноплоск 110*110*50/87,5</t>
-  </si>
-  <si>
-    <t>Millenium Коллекторная груп 3 вых - отопл.</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 50*1,8*1000</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*87,5 с вых 50 фронт</t>
-  </si>
-  <si>
-    <t>РосТурПласт Муфта гибкая ПП 50</t>
-  </si>
-  <si>
-    <t>ELEGANT Американка 3\4 прямая</t>
-  </si>
-  <si>
-    <t>Millenium фильтр грубой очистки FGF1212</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*87,5</t>
+    <t>Millennium Крест. 110*110*50/87,5</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 левый</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый мама\папа</t>
+  </si>
+  <si>
+    <t>REHAU Муфта с нар. Резб 16-1/2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*67</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с нар\рез. 20-1\2</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый папа\папа</t>
+  </si>
+  <si>
+    <t>Millenium Муфта с накид.гайк. углов. 3\4</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*500</t>
+  </si>
+  <si>
+    <t>Прокладка фторопласт 3\4</t>
+  </si>
+  <si>
+    <t>Unilock Уплотнительная паста Unipack 75гр</t>
+  </si>
+  <si>
+    <t>Millennium Нипель 1\2 наруж. рез.</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*87,5 с вых 50 правый</t>
+  </si>
+  <si>
+    <t>СИНИКОН силиконовая смазка</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 110*45</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый 1\2на3\4 ст.машинку</t>
+  </si>
+  <si>
+    <t>Прокладка фторопласт 1\2</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем НАР/рез. 20-3/4</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с вн\рез. 20-1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*45</t>
+  </si>
+  <si>
+    <t>АНИ-пласт Гофра под унитаз</t>
+  </si>
+  <si>
+    <t>Millennium Гиб подводка для воды (м\п) 2м</t>
+  </si>
+  <si>
+    <t>Millennium Крест. одн. 110*110*110/45</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*250</t>
+  </si>
+  <si>
+    <t>Millennium Заглушка 110 ВК</t>
+  </si>
+  <si>
+    <t>REHAU Переход с внутр. резб.16-Rp1\2 MX</t>
+  </si>
+  <si>
+    <t>Millennium Крест. одн. 110*110*50*50/45</t>
+  </si>
+  <si>
+    <t>Ostendorf Переход на чугун - тапер 110/124</t>
+  </si>
+  <si>
+    <t>Политэк Перех манжета к таперу 110/124</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 50*1,8*2000</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с нар\рез. 20-3\4</t>
+  </si>
+  <si>
+    <t>Политэк Переход 110\50</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 25-1\2</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переход с внутр\рез. 16-1\2</t>
+  </si>
+  <si>
+    <t>Millennium Заглушка 1\2 с вн.р</t>
+  </si>
+  <si>
+    <t>Millenium Фум лента большая</t>
+  </si>
+  <si>
+    <t>Millenium Хомут мет. подвесной 3\4</t>
+  </si>
+  <si>
+    <t>REHAU Переход с накид. гайкой 20-G 3\4 MX</t>
+  </si>
+  <si>
+    <t>Millennium Заглушка 50 ВК</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переходник с нар.\рез. 16-1\2</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переходник с вн\рез.20-1\2</t>
+  </si>
+  <si>
+    <t>AQ Переход на чугун - тапер 50/75</t>
+  </si>
+  <si>
+    <t>Политэк Манжета переходная резиновая 50*32</t>
+  </si>
+  <si>
+    <t>Millennium Угольник с нар\резб. 20*1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*87,5</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*1000</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*2000</t>
+  </si>
+  <si>
+    <t>Millennium Крест. одн. 50*50*50/87,5</t>
+  </si>
+  <si>
+    <t>REHAU Гофра 20мм крас.</t>
+  </si>
+  <si>
+    <t>Millennium Заглушка 1\2 с нр.р</t>
+  </si>
+  <si>
+    <t>TIM Фитинг резб. прям. HJ-L3\4F</t>
+  </si>
+  <si>
+    <t>Политэк Манжета переходная резиновая 40*32</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с вн\рез. 25-1\2</t>
+  </si>
+  <si>
+    <t>Bugatti Кран шаровый мама\мама</t>
   </si>
   <si>
     <t>REHAU Монтажная гильза PX 16</t>
   </si>
   <si>
-    <t>REHAU Крепежная планка</t>
-  </si>
-  <si>
-    <t>Лобнинский СФ Унитаз б/бачка с косым вып</t>
-  </si>
-  <si>
-    <t>Millennium Крест. 110*110*110*110/87,5</t>
-  </si>
-  <si>
-    <t>Millennium Крест. одн. 50*50*50/45</t>
-  </si>
-  <si>
-    <t>Bugatti Кран шаровый мама\папа</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*45 с вы 50 лев+прав</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*45 с вых 50 правый</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*90 с вых 50 лев+прав</t>
-  </si>
-  <si>
-    <t>REHAU Переход. с накид. гайкой 16-G 1\2 MX</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*87,5 с вых 50 прямой</t>
-  </si>
-  <si>
-    <t>Редукция 50\40</t>
-  </si>
-  <si>
-    <t>FAR Рег. коллек плоск.уплот 3\4* 3вых 1\2</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*45 с выходом 50 левый</t>
-  </si>
-  <si>
-    <t>Bugatti Кран шаровый папа\папа</t>
-  </si>
-  <si>
-    <t>Крепление FAR колектор</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*87,5 с вых 50 левый</t>
-  </si>
-  <si>
-    <t>REHAU Муфта с нар. Резб 16-1/2</t>
-  </si>
-  <si>
-    <t>Millennium Муфта прямая с нар\рез. 20-1\2</t>
-  </si>
-  <si>
-    <t>Bugatti Кран шаровый 1\2на3\4 ст.машинку</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*45</t>
-  </si>
-  <si>
-    <t>СИНИКОН силиконовая смазка</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 110*2,5*1000</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 110*2,5*2000</t>
-  </si>
-  <si>
-    <t>Millennium Крест. 110*110*50/87,5</t>
-  </si>
-  <si>
-    <t>FAR Рег. коллек плоск.уплот 3\4* 2вых 1\2</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*67</t>
-  </si>
-  <si>
-    <t>Unilock Уплотнительная паста Unipack 75гр</t>
-  </si>
-  <si>
-    <t>REHAU Переход с внутр. резб.16-Rp1\2 MX</t>
-  </si>
-  <si>
-    <t>Millennium Гиб подводка для воды (м\п) 2м</t>
-  </si>
-  <si>
-    <t>Millenium Муфта с накид.гайк. углов. 3\4</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 110*87,5 с вых 50 правый</t>
-  </si>
-  <si>
-    <t>REHAU Переход с накид. гайкой 20-G 1\2 RX</t>
-  </si>
-  <si>
-    <t>Заглушка Пластиковая 1\2 резьба наружная</t>
+    <t>BeFAST Анкер лат . с насеч.М8/10*28</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с нар\рез. 25-1\2</t>
+  </si>
+  <si>
+    <t>REHAU Монтажная гильза PX 20</t>
+  </si>
+  <si>
+    <t>Millennium Нипель переходной 1\2" * 3\4"</t>
+  </si>
+  <si>
+    <t>REHAU Угольник переход с нар\рез. 20-1\2</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 50*50 /87,5</t>
+  </si>
+  <si>
+    <t>REHAU Угол настен.корот.патруб.вн\р25-3\4</t>
+  </si>
+  <si>
+    <t>REHAU Универс.труба RТstabil 16*2,6 - 1м.</t>
+  </si>
+  <si>
+    <t>MILL-ECO труба для В.К. ПП 50*1,8*1500</t>
+  </si>
+  <si>
+    <t>Редукция 50\32</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 25-3\4</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 110*30</t>
+  </si>
+  <si>
+    <t>ViEiR Заглушка 3\4 с вн.р</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 20-1\2</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 32</t>
+  </si>
+  <si>
+    <t>Millennium Футорка 3\4 * 1\2</t>
+  </si>
+  <si>
+    <t>Политэк Переходная манжета к таперу 50/75</t>
+  </si>
+  <si>
+    <t>TIM Фитинг резб. углов. HJ-L3\4F</t>
+  </si>
+  <si>
+    <t>Millennium Муфта комб.разъем вн\рез 20-3\4</t>
+  </si>
+  <si>
+    <t>Millennium Муфта прямая с накид.г. 20 1\2</t>
   </si>
   <si>
     <t>REHAU Гофра 16мм син.</t>
   </si>
   <si>
-    <t>Millennium Муфта переходная 1\2" * 3\4"</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 32*1,8*250</t>
-  </si>
-  <si>
-    <t>Millennium Заглушка 110 ВК</t>
-  </si>
-  <si>
-    <t>Millennium Крест. одн. 110*110*110/45</t>
-  </si>
-  <si>
-    <t>Millennium Крест. одн. 110*110*50*50/45</t>
-  </si>
-  <si>
-    <t>Ostendorf Переход на чугун - тапер 110/124</t>
-  </si>
-  <si>
-    <t>Политэк Перех манжета к таперу 110/124</t>
-  </si>
-  <si>
-    <t>BeFAST Анкер лат . с насеч.М8/10*28</t>
-  </si>
-  <si>
-    <t>Millennium Муфта прямая с нар\рез. 20-3\4</t>
-  </si>
-  <si>
-    <t>Политэк Переход 110\50</t>
-  </si>
-  <si>
-    <t>Millenium Фум лента большая</t>
-  </si>
-  <si>
-    <t>Millennium Нипель 1\2 наруж. рез.</t>
-  </si>
-  <si>
-    <t>REHAU Угольник переход с внутр\рез. 16-1\2</t>
-  </si>
-  <si>
-    <t>Millennium Муфта прямая с вн\рез. 20-1\2</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 50*45</t>
-  </si>
-  <si>
-    <t>Millenium Хомут мет. подвесной 3\4</t>
-  </si>
-  <si>
-    <t>Millennium Колено 2е наст 90 ВР бел.25-1\2</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 50*1,8*250</t>
-  </si>
-  <si>
-    <t>Millennium Муфта комб.разъем вн\рез 25-1\2</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 50*1,8*500</t>
-  </si>
-  <si>
-    <t>REHAU Переход с накид. гайкой 20-G 3\4 MX</t>
-  </si>
-  <si>
-    <t>АНИ-пласт Гофра под унитаз</t>
-  </si>
-  <si>
-    <t>REHAU Универс.труба RТstabil 16*2,6 - 1м.</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 50*87,5</t>
-  </si>
-  <si>
-    <t>Политэк Манжета переходная резиновая 50*32</t>
-  </si>
-  <si>
-    <t>REHAU Угольник переходник с вн\рез.20-1\2</t>
-  </si>
-  <si>
-    <t>AQ Переход на чугун - тапер 50/75</t>
-  </si>
-  <si>
-    <t>Millenium Угол 20-1\2 внут. НАСТЕН. (водороз)</t>
-  </si>
-  <si>
-    <t>Millennium Нипель переходной 1\2" * 3\4"</t>
-  </si>
-  <si>
-    <t>TIM Фитинг резб. прям. HJ-L3\4F</t>
-  </si>
-  <si>
-    <t>Millennium Крест. одн. 50*50*50/87,5</t>
-  </si>
-  <si>
-    <t>Millennium Заглушка 50 ВК</t>
-  </si>
-  <si>
-    <t>Millennium Муфта прямая с вн\рез. 25-1\2</t>
-  </si>
-  <si>
-    <t>Millennium Муфта прямая с нар\рез. 25-1\2</t>
-  </si>
-  <si>
-    <t>REHAU Угольник переходник с нар.\рез. 16-1\2</t>
-  </si>
-  <si>
-    <t>Политэк Манжета переходная резиновая 40*32</t>
-  </si>
-  <si>
-    <t>Bugatti Кран шаровый мама\мама</t>
-  </si>
-  <si>
-    <t>REHAU Угол настен.корот.патруб.вн\р25-3\4</t>
-  </si>
-  <si>
-    <t>REHAU Угольник переход с нар\рез. 20-1\2</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 40*1,8*1000</t>
-  </si>
-  <si>
-    <t>Политэк Хомут с защелкой 32</t>
-  </si>
-  <si>
-    <t>Millennium Муфта комб.разъем НАР/рез. 20-3/4</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 50*1,8*2000</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 40*1,8*2000</t>
-  </si>
-  <si>
-    <t>Millennium Муфта комб.разъем вн\рез 25-3\4</t>
-  </si>
-  <si>
-    <t>Millennium Муфта комб.разъем вн\рез 20-3\4</t>
-  </si>
-  <si>
-    <t>Редукция 50\32</t>
-  </si>
-  <si>
-    <t>MILL-ECO труба для В.К. ПП 50*1,8*1500</t>
-  </si>
-  <si>
-    <t>Millennium Футорка 3\4 * 1\2</t>
-  </si>
-  <si>
     <t>REHAU Универс.труба RTstabil 25*3,7 - 1м</t>
   </si>
   <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*1000</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*67</t>
+  </si>
+  <si>
+    <t>REHAU Универс.труба RTstabil 20*2,9 - 1м</t>
+  </si>
+  <si>
+    <t>Политэк Заглушка 32</t>
+  </si>
+  <si>
+    <t>Политэк Отвод 40*87,5</t>
+  </si>
+  <si>
+    <t>Millennium Угольник с вн\резб. 20*1\2</t>
+  </si>
+  <si>
+    <t>Millennium Отвод 50*30</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 40*40 /45</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*500</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 40*1,8*250</t>
+  </si>
+  <si>
+    <t>Millennium труба для В.К. ПП 32*1,8*2000</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 40*40 /87,5</t>
+  </si>
+  <si>
+    <t>Политэк Переход 40\32</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 110</t>
+  </si>
+  <si>
+    <t>Политэк Хомут с защелкой 50</t>
+  </si>
+  <si>
+    <t>Политэк Заглушка 40</t>
+  </si>
+  <si>
+    <t>Millennium Переходн вн.\нар. рез 1\2"*3\4"</t>
+  </si>
+  <si>
+    <t>ViEiR Муфта перех 1\2 на 3\4</t>
+  </si>
+  <si>
     <t>Millennium Колено 2е наст 90 ВР бел.20-1\2</t>
   </si>
   <si>
-    <t>Политэк Отвод 110*30</t>
-  </si>
-  <si>
-    <t>ViEiR Заглушка 3\4 с вн.р</t>
-  </si>
-  <si>
-    <t>Millennium Угольник с нар\резб. 20*1\2</t>
-  </si>
-  <si>
-    <t>REHAU Гофра 20мм крас.</t>
-  </si>
-  <si>
-    <t>Millennium Угольник с вн\резб. 20*1\2</t>
-  </si>
-  <si>
-    <t>Millenium Гофра красная 16мм K016K</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 50*67</t>
-  </si>
-  <si>
-    <t>Millennium Муфта комб.разъем вн\рез 20-1\2</t>
-  </si>
-  <si>
-    <t>Политэк Переходная манжета к таперу 50/75</t>
-  </si>
-  <si>
-    <t>TIM Фитинг резб. углов. HJ-L3\4F</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 32*1,8*1000</t>
-  </si>
-  <si>
-    <t>Millennium Заглушка 1\2 с вн.р</t>
-  </si>
-  <si>
-    <t>Политэк Хомут с защелкой 50</t>
-  </si>
-  <si>
-    <t>Политэк Заглушка 32</t>
-  </si>
-  <si>
-    <t>REHAU Монтажная гильза PX 20</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 32*1,8*500</t>
-  </si>
-  <si>
-    <t>Millennium Отвод 50*30</t>
-  </si>
-  <si>
-    <t>Политэк Тройник 50*50 /87,5</t>
-  </si>
-  <si>
-    <t>Millennium Заглушка 1\2 с нр.р</t>
-  </si>
-  <si>
-    <t>Политэк Тройник 40*40 /45</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 32*1,8*2000</t>
-  </si>
-  <si>
-    <t>Millennium труба для В.К. ПП 40*1,8*250</t>
-  </si>
-  <si>
-    <t>Политэк Отвод 40*87,5</t>
-  </si>
-  <si>
-    <t>Политэк Тройник 40*40 /87,5</t>
-  </si>
-  <si>
-    <t>Прокладка фторопласт 1\2</t>
-  </si>
-  <si>
-    <t>Политэк Хомут с защелкой 110</t>
-  </si>
-  <si>
-    <t>Политэк Переход 40\32</t>
-  </si>
-  <si>
-    <t>Millennium Переходн вн.\нар. рез 1\2"*3\4"</t>
-  </si>
-  <si>
-    <t>Политэк Заглушка 40</t>
-  </si>
-  <si>
-    <t>ViEiR Муфта перех 1\2 на 3\4</t>
-  </si>
-  <si>
     <t>Политэк Отвод 32*87,5</t>
   </si>
   <si>
-    <t>Millennium труба для В.К. ПП 40*1,8*500</t>
-  </si>
-  <si>
-    <t>Прокладка фторопласт 3\4</t>
-  </si>
-  <si>
     <t>Политэк Отвод 40*45</t>
   </si>
   <si>
+    <t>Millennium Ревизия 50</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 32*32 /87,5</t>
+  </si>
+  <si>
+    <t>Политэк Тройник 32*32 /45</t>
+  </si>
+  <si>
     <t>Политэк Отвод 32*45</t>
   </si>
   <si>
-    <t>Millennium Муфта прямая с накид.г. 20 1\2</t>
+    <t>Millenium Заглушка 3\4 с нар.р.</t>
   </si>
   <si>
     <t>Millennium Обводное колено 20мм. короткое</t>
   </si>
   <si>
-    <t>Millennium Ревизия 50</t>
+    <t>Политэк Хомут с защелкой 40</t>
+  </si>
+  <si>
+    <t>REHAU Монтажная гильза PX 25</t>
+  </si>
+  <si>
+    <t>Millennium Угольник 25*90</t>
   </si>
   <si>
     <t>Millennium Угольник 20*45</t>
   </si>
   <si>
-    <t>Политэк Тройник 32*32 /45</t>
-  </si>
-  <si>
-    <t>Millenium Заглушка 3\4 с нар.р.</t>
-  </si>
-  <si>
-    <t>Политэк Тройник 32*32 /87,5</t>
-  </si>
-  <si>
-    <t>Millennium Угольник 25*90</t>
-  </si>
-  <si>
-    <t>REHAU Универс.труба RTstabil 20*2,9 - 1м</t>
-  </si>
-  <si>
-    <t>REHAU Монтажная гильза PX 25</t>
-  </si>
-  <si>
-    <t>Политэк Хомут с защелкой 40</t>
+    <t>Millennium Муфта 25мм</t>
   </si>
   <si>
     <t>Millennium Тройник 20мм</t>
   </si>
   <si>
-    <t>Millennium Муфта 25мм</t>
-  </si>
-  <si>
     <t>Millennium Муфта 20мм</t>
   </si>
   <si>
-    <t>Millennium Угольник 20*90</t>
-  </si>
-  <si>
     <t>Millennium Труба стабильная 20*3,4 PN25</t>
   </si>
   <si>
@@ -1078,103 +1096,157 @@
     <t>Kolotek гидро-пароизоляция 70м</t>
   </si>
   <si>
+    <t>Rockwool Акустик Баттс 50мм (6м2)</t>
+  </si>
+  <si>
     <t>ПЕНОПЛЭКС Утеплитель эктруз. 30*585*1185 (13шт)</t>
   </si>
   <si>
-    <t>Rockwool Акустик Баттс 50мм (6м2)</t>
-  </si>
-  <si>
     <t>ПЕНОПЛЭКС Утеплитель эктруз. 50*585*1185 (8шт)</t>
   </si>
   <si>
+    <t>Oxiss Сетка абразивная P240</t>
+  </si>
+  <si>
+    <t>Oxiss Сетка абразивная P120</t>
+  </si>
+  <si>
+    <t>Santool Сетка абразивная P240</t>
+  </si>
+  <si>
+    <t>БИБЕР Сетка абразивная P100</t>
+  </si>
+  <si>
+    <t>Шкурка 14а - зерн Н6 1м</t>
+  </si>
+  <si>
+    <t>Sparta Сетка абр P240 115*280мм (10 шт \ упак.)</t>
+  </si>
+  <si>
     <t>СИБРТЕХ Шнур крученый капроновый 1,5мм L100м</t>
   </si>
   <si>
+    <t>БИБЕР Сетка абр P240 110*280мм (упак.)</t>
+  </si>
+  <si>
+    <t>БИБЕР Сетка абр P180 110*280мм (упак.)</t>
+  </si>
+  <si>
     <t>Sparta Сетка абр P180 115*280мм (10 шт \ упак.)</t>
   </si>
   <si>
-    <t>Sparta Сетка абр P240 115*280мм (10 шт \ упак.)</t>
-  </si>
-  <si>
-    <t>БИБЕР Сетка абр P240 110*280мм (упак.)</t>
-  </si>
-  <si>
-    <t>БИБЕР Сетка абр P180 110*280мм (упак.)</t>
-  </si>
-  <si>
     <t>БИБЕР Сетка абр P120 110*280мм (упак.)</t>
   </si>
   <si>
+    <t>СИБРТЕХ Терка полиурит. 180*320</t>
+  </si>
+  <si>
     <t>Sparta Сетка абр P100 115*280мм (10 шт \ упак.)</t>
   </si>
   <si>
-    <t>СИБРТЕХ Терка полиурит. 180*320</t>
-  </si>
-  <si>
-    <t>Шкурка 14а - зерн Н6 1м</t>
-  </si>
-  <si>
     <t>Sparta Сетка абр P120 115*280мм (10 шт \ упак.)</t>
   </si>
   <si>
     <t>Sparta Сетка абр P220 115*280мм (10 шт \ упак.)</t>
   </si>
   <si>
+    <t>Гофра электр. 20мм (б\н) сер.</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Изолента ПВХ 0,015* 10м 130мкм</t>
+  </si>
+  <si>
+    <t>Legrand розетка с заземлением</t>
+  </si>
+  <si>
+    <t>ССТ Теплый пол (мат) 3,85м2 ( WSM-580-3.85)</t>
+  </si>
+  <si>
+    <t>КабельАрсенал ВВГнг ГОСТ 3*1,5мм</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 24 модулей ВНУТ</t>
+  </si>
+  <si>
+    <t>ROL'S Изолента 19*2 желт.</t>
+  </si>
+  <si>
+    <t>БрянскКабель ВВГнг 3*4</t>
+  </si>
+  <si>
+    <t>TOP FLOOR Терморегулятор (эл.) E 91.716</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 18 модулей НАР.</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 12 модулей ВНУТР</t>
+  </si>
+  <si>
+    <t>Tekfor Щит 18 модулей ВНУТ</t>
+  </si>
+  <si>
+    <t>ССТ Теплый пол (мат) 1,2м2</t>
+  </si>
+  <si>
+    <t>ССТ Теплый пол (мат) 2м2 ( WSM-300-2.00)</t>
+  </si>
+  <si>
+    <t>EASTEK Терморегулятор (мех.) RTC 70.26</t>
+  </si>
+  <si>
+    <t>Конкорд ВВГнг LS ГОСТ 3*2,5мм</t>
+  </si>
+  <si>
+    <t>ABB ДИФ. Автомат 16А 2 полюса</t>
+  </si>
+  <si>
+    <t>Legrand Рамка 1 - местная сл.кость</t>
+  </si>
+  <si>
+    <t>Legrand Рамка 2 - местная сл.кость</t>
+  </si>
+  <si>
+    <t>СЕВКАБЕЛЬ NYM 3*2,5мм</t>
+  </si>
+  <si>
+    <t>Клипса для гофры (электр.) 20мм</t>
+  </si>
+  <si>
+    <t>КабельАрсенал кабель ВВГнг 3*2,5</t>
+  </si>
+  <si>
     <t>АБК-СИЛА шина монтажная (колодка)</t>
   </si>
   <si>
-    <t>ССТ Теплый пол (мат) 3,85м2 ( WSM-580-3.85)</t>
-  </si>
-  <si>
-    <t>TOP FLOOR Терморегулятор (эл.) E 91.716</t>
-  </si>
-  <si>
-    <t>Tekfor Щит 24 модулей ВНУТ</t>
-  </si>
-  <si>
-    <t>ССТ Теплый пол (мат) 2м2 ( WSM-300-2.00)</t>
-  </si>
-  <si>
-    <t>EASTEK Терморегулятор (мех.) RTC 70.26</t>
-  </si>
-  <si>
-    <t>Tekfor Щит 12 модулей ВНУТР</t>
-  </si>
-  <si>
-    <t>ССТ Теплый пол (мат) 1,2м2</t>
-  </si>
-  <si>
-    <t>Tekfor Щит 18 модулей ВНУТ</t>
+    <t>АБК-Сила Шина-Гребенка</t>
   </si>
   <si>
     <t>ROL'S Изолента 19*2 крас.</t>
   </si>
   <si>
-    <t>Tekfor Щит 18 модулей НАР.</t>
-  </si>
-  <si>
-    <t>Legrand Рамка 1 - местная сл.кость</t>
+    <t>Изолента 19*2 син. Украина</t>
+  </si>
+  <si>
+    <t>ABB Автомат 16A</t>
+  </si>
+  <si>
+    <t>ABB Автомат 25A</t>
+  </si>
+  <si>
+    <t>СЕВКАБЕЛЬ NYM 3*1,5мм</t>
   </si>
   <si>
     <t>ABB ДИФ. Автомат 25А 2 полюса</t>
   </si>
   <si>
-    <t>Legrand розетка с заземлением</t>
-  </si>
-  <si>
-    <t>ABB ДИФ. Автомат 16А 2 полюса</t>
-  </si>
-  <si>
-    <t>Legrand Рамка 2 - местная сл.кость</t>
-  </si>
-  <si>
-    <t>ABB Автомат 25A</t>
-  </si>
-  <si>
     <t>Legrand Рамка 3 - местная сл.кость</t>
   </si>
   <si>
-    <t>Изолента 19*2 син. Украина</t>
+    <t>ABB Автомат 10A</t>
+  </si>
+  <si>
+    <t>Legrand Выключатель 2кл сл.кость</t>
   </si>
   <si>
     <t>ABB Автомат 32A</t>
@@ -1183,163 +1255,181 @@
     <t>ABB УЗО 40A</t>
   </si>
   <si>
-    <t>Legrand Выключатель 2кл сл.кость</t>
+    <t>Wago Клемма 3х защелки</t>
+  </si>
+  <si>
+    <t>ABB УЗО 16A</t>
+  </si>
+  <si>
+    <t>Legrand Выключатель 1кл сл.кость</t>
+  </si>
+  <si>
+    <t>ABB Автомат 40А 2 полюса</t>
+  </si>
+  <si>
+    <t>ROL'S Изолента 19*2 бел.</t>
   </si>
   <si>
     <t>ROL'S Изолента 19*2 зел.</t>
   </si>
   <si>
-    <t>Legrand Выключатель 1кл сл.кость</t>
-  </si>
-  <si>
-    <t>ROL'S Изолента 19*2 бел.</t>
-  </si>
-  <si>
-    <t>ABB УЗО 16A</t>
-  </si>
-  <si>
-    <t>ABB Автомат 16A</t>
-  </si>
-  <si>
-    <t>ABB Автомат 40А 2 полюса</t>
-  </si>
-  <si>
-    <t>ABB Автомат 10A</t>
-  </si>
-  <si>
     <t>КабельАрсенал ВВГнг 3*6</t>
   </si>
   <si>
+    <t>Cavel ТВ кабель (Итал.) SAT703B ret</t>
+  </si>
+  <si>
+    <t>UNIVersal патрон E27</t>
+  </si>
+  <si>
+    <t>Кабель ПВС 2*1,5</t>
+  </si>
+  <si>
+    <t>Конкорд ВВГнг LS ГОСТ 3*1,5мм</t>
+  </si>
+  <si>
+    <t>Подрозетник по ГКЛ син.</t>
+  </si>
+  <si>
+    <t>Wago Клемма 2х защелки</t>
+  </si>
+  <si>
+    <t>Дюбель хомут 5мм</t>
+  </si>
+  <si>
     <t>Электротехпласт Коробка распаяч. квадрат.</t>
   </si>
   <si>
-    <t>Дюбель хомут 5мм</t>
-  </si>
-  <si>
-    <t>UNIVersal патрон E27</t>
+    <t>Wago Клемма 5x без пасты</t>
   </si>
   <si>
     <t>Wago Клемма 5х защелки</t>
   </si>
   <si>
+    <t>Goldex Подрозетник по бет. 68*42 крас.</t>
+  </si>
+  <si>
+    <t>Конкорд NYM 3*6мм</t>
+  </si>
+  <si>
+    <t>Калашников Лампа 200вт Е27</t>
+  </si>
+  <si>
+    <t>Wago Клемма 3x без пасты</t>
+  </si>
+  <si>
     <t>Калашников Лампа 150вт Е27</t>
   </si>
   <si>
-    <t>БрянскКабель ВВГнг 3*4</t>
-  </si>
-  <si>
-    <t>Wago Клемма 5x без пасты</t>
-  </si>
-  <si>
-    <t>АБК-Сила Шина-Гребенка</t>
+    <t>Wago Клемма 2x без пасты</t>
+  </si>
+  <si>
+    <t>Витая пара</t>
   </si>
   <si>
     <t>Goldex Подрозетник по бет . ГЛУБОКИЙ крас</t>
   </si>
   <si>
-    <t>Wago Клемма 3x без пасты</t>
-  </si>
-  <si>
-    <t>Wago Клемма 2x без пасты</t>
-  </si>
-  <si>
-    <t>Wago Клемма 3х защелки</t>
-  </si>
-  <si>
-    <t>Конкорд NYM 3*6мм</t>
-  </si>
-  <si>
-    <t>Подрозетник по ГКЛ син.</t>
-  </si>
-  <si>
-    <t>Cavel ТВ кабель (Итал.) SAT703B ret</t>
-  </si>
-  <si>
-    <t>Кабель ПВС 2*1,5</t>
-  </si>
-  <si>
-    <t>Wago Клемма 2х защелки</t>
-  </si>
-  <si>
-    <t>Конкорд ВВГнг LS ГОСТ 3*2,5мм</t>
-  </si>
-  <si>
-    <t>Калашников Лампа 200вт Е27</t>
-  </si>
-  <si>
-    <t>СЕВКАБЕЛЬ NYM 3*1,5мм</t>
-  </si>
-  <si>
-    <t>Витая пара</t>
+    <t>Гофра электр. 16мм (б\н) сер.</t>
   </si>
   <si>
     <t>Клипса для гофры (электр.) 16мм</t>
   </si>
   <si>
-    <t>Goldex Подрозетник по бет. 68*42 крас.</t>
-  </si>
-  <si>
-    <t>СЕВКАБЕЛЬ NYM 3*2,5мм</t>
-  </si>
-  <si>
-    <t>Гофра электр. 16мм (б\н) сер.</t>
-  </si>
-  <si>
-    <t>Гофра электр. 20мм (б\н) сер.</t>
-  </si>
-  <si>
-    <t>Конкорд ВВГнг LS ГОСТ 3*1,5мм</t>
+    <t>Кабель Телефонный (б\н)</t>
   </si>
   <si>
     <t>Клипса для гофры (электр.) 25мм</t>
   </si>
   <si>
-    <t>Клипса для гофры (электр.) 20мм</t>
-  </si>
-  <si>
-    <t>Кабель Телефонный (б\н)</t>
-  </si>
-  <si>
     <t>Гофра электр. 25мм (б\н) сер.</t>
   </si>
   <si>
+    <t>СИБРТЕХ Зубило плоское 20*240</t>
+  </si>
+  <si>
+    <t>ГОЛДЕН Бур 8*160</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 6,5*110</t>
+  </si>
+  <si>
+    <t>СИБРТЕХ Бур по бетону 6*160</t>
+  </si>
+  <si>
+    <t>ЮХТ Бур по бетону 6*110</t>
+  </si>
+  <si>
+    <t>БИБЕР Зубило лопаточное 40*250мм</t>
+  </si>
+  <si>
+    <t>Сибртех Коронка М22*68 SDS+</t>
+  </si>
+  <si>
+    <t>Биты PH-2 25мм (3шт\уп)</t>
+  </si>
+  <si>
+    <t>УКР ДИАМАНТ Диск по Бетону 125*7</t>
+  </si>
+  <si>
+    <t>Archimedes Сверло по плитке и стеклу 6*68</t>
+  </si>
+  <si>
+    <t>Голден Пика 14*250</t>
+  </si>
+  <si>
+    <t>ГОЛДЕН Бур 24*410</t>
+  </si>
+  <si>
+    <t>MATRIX Бур по бетону 8*210</t>
+  </si>
+  <si>
+    <t>ГОЛДЕН Бур 10*150</t>
+  </si>
+  <si>
     <t>ЗУБР Алмазная чашка</t>
   </si>
   <si>
+    <t>БИБЕР Бур 8*250\310мм 25\100</t>
+  </si>
+  <si>
+    <t>MATRIX Пика 18*280</t>
+  </si>
+  <si>
+    <t>БИБЕР Пилки эл.лобз 74\3мм Т111С дерев.3шт</t>
+  </si>
+  <si>
     <t>СИБРТЕХ Бур по бетону 12*160 SDS+</t>
   </si>
   <si>
+    <t>СИБРТЕХ Бур по бетону 8*300</t>
+  </si>
+  <si>
+    <t>ЛУГА Диск отрезной 125*1,2*22мм мет 50\400</t>
+  </si>
+  <si>
     <t>СИБРТЕХ Бур по бетону 10*110</t>
   </si>
   <si>
-    <t>MATRIX Пика 18*280</t>
-  </si>
-  <si>
-    <t>ЛУГА Диск отрезной 125*1,2*22мм мет 50\400</t>
+    <t>MATRIX Коронка М22*68 с центр.сверл. SDS+</t>
   </si>
   <si>
     <t>MATRIX Сверло по керам. плитке 6*75</t>
   </si>
   <si>
-    <t>MATRIX Бур по бетону 8*210</t>
+    <t>MATRIX Диск алмазн. отрезной125*22,2</t>
   </si>
   <si>
     <t>СИБРТЕХ Биты РН2*50 5шт</t>
   </si>
   <si>
+    <t>MATRIX Бур по бетону 6*160</t>
+  </si>
+  <si>
     <t>MATRIX Миксер 80*400 SDS+</t>
   </si>
   <si>
-    <t>MATRIX Диск алмазн. отрезной125*22,2</t>
-  </si>
-  <si>
     <t>СИБРТЕХ Пилки для эл. лобз. 74.3 Т111С</t>
-  </si>
-  <si>
-    <t>MATRIX Коронка М22*68 с центр.сверл. SDS+</t>
-  </si>
-  <si>
-    <t>MATRIX Бур по бетону 6*160</t>
   </si>
   <si>
     <t>MATRIX Бур по бетону 12*160</t>
@@ -1352,31 +1442,54 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1385,53 +1498,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel_BuiltIn_Заголовок 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00E6E6E6"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1489,9 +1660,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1524,9 +1695,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1694,7 +1865,92 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1706,2229 +1962,2550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A442"/>
+  <dimension ref="A1:A602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="27" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="34" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="36" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="37" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="38" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="39" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="40" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="41" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="43" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="45" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="46" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="47" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="48" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="49" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="50" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="51" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="52" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="53" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="54" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="56" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="57" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="58" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="59" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="60" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="61" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="62" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="63" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    <row r="64" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="65" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="66" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="67" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="68" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="69" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="70" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="71" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="72" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="73" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="74" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="75" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="76" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="77" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="78" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="79" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="80" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="81" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="82" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="83" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="84" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="85" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="87" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="88" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    <row r="89" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="90" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    <row r="91" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="92" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    <row r="93" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    <row r="94" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    <row r="95" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    <row r="97" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    <row r="98" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    <row r="99" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    <row r="100" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="101" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="102" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    <row r="103" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    <row r="104" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    <row r="105" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+    <row r="106" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+    <row r="107" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+    <row r="108" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    <row r="109" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    <row r="110" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    <row r="111" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+    <row r="112" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    <row r="113" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+    <row r="114" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+    <row r="115" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+    <row r="117" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    <row r="118" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+    <row r="119" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    <row r="121" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+    <row r="122" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+    <row r="123" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+    <row r="124" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+    <row r="125" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    <row r="126" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    <row r="127" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    <row r="129" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+    <row r="130" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    <row r="131" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    <row r="133" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+    <row r="134" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+    <row r="135" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+    <row r="136" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+    <row r="137" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+    <row r="138" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+    <row r="139" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+    <row r="140" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    <row r="141" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    <row r="142" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+    <row r="143" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    <row r="144" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="145" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+    <row r="146" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+    <row r="147" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    <row r="148" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+    <row r="149" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+    <row r="150" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+    <row r="151" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+    <row r="152" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+    <row r="153" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+    <row r="154" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+    <row r="155" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+    <row r="156" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+    <row r="157" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+    <row r="158" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+    <row r="159" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+    <row r="160" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+    <row r="161" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+    <row r="162" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+    <row r="163" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+    <row r="164" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+    <row r="165" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+    <row r="166" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+    <row r="167" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+    <row r="168" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+    <row r="169" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+    <row r="170" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+    <row r="172" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+    <row r="173" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+    <row r="174" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+    <row r="175" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+    <row r="176" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+    <row r="177" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+    <row r="178" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+    <row r="179" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+    <row r="180" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+    <row r="181" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+    <row r="182" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+    <row r="183" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+    <row r="184" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+    <row r="186" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+    <row r="187" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
+    <row r="188" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
+    <row r="189" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+    <row r="190" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
+    <row r="191" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+    <row r="192" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+    <row r="193" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
+    <row r="194" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+    <row r="195" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+    <row r="196" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+    <row r="197" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
+    <row r="198" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
+    <row r="199" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
+    <row r="200" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
+    <row r="201" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+    <row r="202" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+    <row r="203" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
+    <row r="204" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+    <row r="205" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+    <row r="206" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+    <row r="207" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+    <row r="208" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+    <row r="209" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+    <row r="210" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="5"/>
+    </row>
+    <row r="211" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+    <row r="212" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+    <row r="213" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+    <row r="214" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+    <row r="215" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+    <row r="216" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+    <row r="217" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+    <row r="218" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+    <row r="219" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+    <row r="220" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+    <row r="221" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+    <row r="222" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+    <row r="223" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+    <row r="224" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+    <row r="225" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+    <row r="226" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+    <row r="227" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+    <row r="228" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+    <row r="229" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
+    <row r="230" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+    <row r="231" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+    <row r="232" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+    <row r="233" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+    <row r="234" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+    <row r="235" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+    <row r="236" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+    <row r="237" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
+    <row r="238" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+    <row r="239" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
+    <row r="240" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+    <row r="241" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+    <row r="242" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+    <row r="243" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+    <row r="244" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+    <row r="245" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+    <row r="246" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+    <row r="247" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
+    <row r="248" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
+    <row r="249" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+    <row r="250" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+    <row r="251" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+    <row r="252" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+    <row r="253" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+    <row r="254" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
+    <row r="255" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
+    <row r="256" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
+    <row r="257" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
+    <row r="258" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
+    <row r="259" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
+    <row r="260" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
+    <row r="261" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
+    <row r="262" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
+    <row r="263" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
+    <row r="264" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
+    <row r="265" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
+    <row r="266" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="2" t="s">
+    <row r="267" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
+    <row r="268" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
+    <row r="269" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+    <row r="270" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
+    <row r="271" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
+    <row r="272" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="2" t="s">
+    <row r="273" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
+    <row r="274" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
+    <row r="275" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="2" t="s">
+    <row r="276" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="2" t="s">
+    <row r="277" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
+    <row r="278" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="2" t="s">
+    <row r="279" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="2" t="s">
+    <row r="280" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="2" t="s">
+    <row r="281" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
+    <row r="282" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
+    <row r="283" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
+    <row r="284" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
+    <row r="285" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
+    <row r="286" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="2" t="s">
+    <row r="287" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
+    <row r="288" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
+    <row r="289" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
+    <row r="290" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
+    <row r="291" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
+    <row r="292" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
+    <row r="293" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
+    <row r="294" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
+    <row r="295" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
+    <row r="296" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
+    <row r="297" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
+    <row r="298" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
+    <row r="299" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
+    <row r="300" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
+    <row r="301" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
+    <row r="302" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
+    <row r="303" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
+    <row r="304" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="2" t="s">
+    <row r="305" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
+    <row r="306" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="2" t="s">
+    <row r="307" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="2" t="s">
+    <row r="308" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="2" t="s">
+    <row r="309" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="2" t="s">
+    <row r="310" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="2" t="s">
+    <row r="311" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
+    <row r="312" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="2" t="s">
+    <row r="313" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="2" t="s">
+    <row r="314" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
+    <row r="315" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="2" t="s">
+    <row r="316" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="2" t="s">
+    <row r="317" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
+    <row r="318" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
+    <row r="319" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
+    <row r="320" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+    <row r="321" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
+    <row r="322" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
+    <row r="323" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
+    <row r="324" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
+    <row r="325" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
+    <row r="326" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+    <row r="327" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
+    <row r="328" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
+    <row r="329" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+    <row r="330" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
+    <row r="331" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
+    <row r="332" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
+    <row r="333" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
+    <row r="334" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
+    <row r="335" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
+    <row r="336" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+    <row r="337" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+    <row r="338" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
+    <row r="339" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
+    <row r="340" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
+    <row r="341" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
+    <row r="342" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
+    <row r="343" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
+    <row r="344" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
+    <row r="345" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+    <row r="346" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+    <row r="347" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+    <row r="348" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
+    <row r="349" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
+    <row r="350" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
+    <row r="351" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
+    <row r="352" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
+    <row r="353" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
+    <row r="354" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
+    <row r="355" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
+    <row r="356" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
+    <row r="357" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
+    <row r="358" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
+    <row r="359" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="2" t="s">
+    <row r="360" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="2" t="s">
+    <row r="361" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
+    <row r="362" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
+    <row r="363" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
+    <row r="364" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
+    <row r="365" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
+    <row r="366" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
+    <row r="367" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="2" t="s">
+    <row r="368" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="2" t="s">
+    <row r="369" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="2" t="s">
+    <row r="370" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="2" t="s">
+    <row r="371" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="5"/>
+    </row>
+    <row r="372" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
+    <row r="373" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="2" t="s">
+    <row r="374" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="2" t="s">
+    <row r="375" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="2" t="s">
+    <row r="376" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
+    <row r="377" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="2" t="s">
+    <row r="378" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="5"/>
+    </row>
+    <row r="379" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
+    <row r="380" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
+    <row r="381" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
+    <row r="382" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="2" t="s">
+    <row r="383" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
+    <row r="384" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
+    <row r="385" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
+    <row r="386" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="2" t="s">
+    <row r="387" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
+    <row r="388" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="2" t="s">
+    <row r="389" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
+    <row r="390" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="2" t="s">
+    <row r="391" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
+    <row r="392" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="2" t="s">
+    <row r="393" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
+    <row r="394" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="5"/>
+    </row>
+    <row r="395" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="2" t="s">
+    <row r="396" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
+    <row r="397" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="2" t="s">
+    <row r="398" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
+    <row r="399" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="2" t="s">
+    <row r="400" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="2" t="s">
+    <row r="401" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="2" t="s">
+    <row r="402" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="2" t="s">
+    <row r="403" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="2" t="s">
+    <row r="404" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
+    <row r="405" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="2" t="s">
+    <row r="406" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="2" t="s">
+    <row r="407" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="2" t="s">
+    <row r="408" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="2" t="s">
+    <row r="409" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="2" t="s">
+    <row r="410" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="2" t="s">
+    <row r="411" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="2" t="s">
+    <row r="412" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="2" t="s">
+    <row r="413" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="2" t="s">
+    <row r="414" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="2" t="s">
+    <row r="415" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="2" t="s">
+    <row r="416" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="2" t="s">
+    <row r="417" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="2" t="s">
+    <row r="418" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="2" t="s">
+    <row r="419" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="2" t="s">
+    <row r="420" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="2" t="s">
+    <row r="421" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="2" t="s">
+    <row r="422" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="2" t="s">
+    <row r="423" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="2" t="s">
+    <row r="424" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
+    <row r="425" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="2" t="s">
+    <row r="426" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="2" t="s">
+    <row r="427" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="2" t="s">
+    <row r="428" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
+    <row r="429" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="2" t="s">
+    <row r="430" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="2" t="s">
+    <row r="431" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="2" t="s">
+    <row r="432" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="2" t="s">
+    <row r="433" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="2" t="s">
+    <row r="434" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="2" t="s">
+    <row r="435" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="2" t="s">
+    <row r="436" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="2" t="s">
+    <row r="437" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="2" t="s">
+    <row r="438" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="2" t="s">
+    <row r="439" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="2" t="s">
+    <row r="440" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="2" t="s">
+    <row r="441" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="2" t="s">
+    <row r="442" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="2" t="s">
+    <row r="443" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="2" t="s">
+    <row r="444" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="2" t="s">
+    <row r="445" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="2" t="s">
+    <row r="446" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="2" t="s">
+    <row r="447" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="2" t="s">
+    <row r="448" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="2" t="s">
+    <row r="449" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="2" t="s">
+    <row r="450" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="2" t="s">
+    <row r="451" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="2" t="s">
+    <row r="452" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="2" t="s">
+    <row r="453" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="2" t="s">
+    <row r="454" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="2" t="s">
+    <row r="455" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="2" t="s">
+    <row r="456" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="2" t="s">
+    <row r="457" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="2" t="s">
+    <row r="458" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="2" t="s">
+    <row r="459" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="2" t="s">
+    <row r="460" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="5"/>
+    </row>
+    <row r="461" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="4" t="s">
         <v>441</v>
       </c>
     </row>
+    <row r="462" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>